--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77794FCE-CDD3-4180-B443-3C43AB37FE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E25D97-23E0-485C-ADBE-EFE73741BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,13 +237,16 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -276,6 +279,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -341,7 +352,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -369,52 +380,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1060,7 +1034,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+      <selection activeCell="E3" sqref="E3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1105,7 +1079,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1125,8 +1099,8 @@
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
+      <c r="E3" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1145,8 +1119,8 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>59</v>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1165,8 +1139,8 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>59</v>
+      <c r="E5" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1185,8 +1159,8 @@
       <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
+      <c r="E6" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1205,8 +1179,8 @@
       <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
+      <c r="E7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1225,8 +1199,8 @@
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>59</v>
+      <c r="E8" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1245,8 +1219,8 @@
       <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
+      <c r="E9" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1265,8 +1239,8 @@
       <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
+      <c r="E10" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1285,8 +1259,8 @@
       <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
+      <c r="E11" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1305,8 +1279,8 @@
       <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
+      <c r="E12" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1325,8 +1299,8 @@
       <c r="D13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
+      <c r="E13" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1345,8 +1319,8 @@
       <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
+      <c r="E14" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1365,8 +1339,8 @@
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1385,8 +1359,8 @@
       <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
+      <c r="E16" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1405,8 +1379,8 @@
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1425,8 +1399,8 @@
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
+      <c r="E18" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1445,8 +1419,8 @@
       <c r="D19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>59</v>
+      <c r="E19" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1465,8 +1439,8 @@
       <c r="D20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>59</v>
+      <c r="E20" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1485,8 +1459,8 @@
       <c r="D21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>59</v>
+      <c r="E21" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1505,8 +1479,8 @@
       <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>59</v>
+      <c r="E22" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1525,8 +1499,8 @@
       <c r="D23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>59</v>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1545,8 +1519,8 @@
       <c r="D24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>59</v>
+      <c r="E24" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1565,8 +1539,8 @@
       <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>59</v>
+      <c r="E25" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1585,8 +1559,8 @@
       <c r="D26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>59</v>
+      <c r="E26" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1605,8 +1579,8 @@
       <c r="D27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>59</v>
+      <c r="E27" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1625,8 +1599,8 @@
       <c r="D28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>59</v>
+      <c r="E28" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1645,8 +1619,8 @@
       <c r="D29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>59</v>
+      <c r="E29" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1654,88 +1628,88 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="33" priority="127"/>
+    <cfRule type="uniqueValues" dxfId="29" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="9" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="32" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="8" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="31" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="30" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="29" priority="24"/>
+    <cfRule type="uniqueValues" dxfId="28" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="27" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="28" priority="23"/>
+    <cfRule type="uniqueValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="27" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="26" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="25" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="7" priority="19"/>
+    <cfRule type="uniqueValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="24" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="6" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="23" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="22" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="21" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="uniqueValues" dxfId="20" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
-    <cfRule type="uniqueValues" dxfId="19" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
-    <cfRule type="uniqueValues" dxfId="18" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="uniqueValues" dxfId="17" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="uniqueValues" dxfId="16" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="21" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="20" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="15" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="14" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E29">
-    <cfRule type="uniqueValues" dxfId="13" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E29">
-    <cfRule type="uniqueValues" dxfId="12" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="11" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="10" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E25D97-23E0-485C-ADBE-EFE73741BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B7490-8EAA-42CE-9C74-23326A2EB8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,9 +237,6 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1031,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E29"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1100,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1120,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1140,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1160,7 +1157,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1180,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1200,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1220,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1240,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1260,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1280,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1300,7 +1297,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1320,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1340,7 +1337,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1360,7 +1357,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1380,7 +1377,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1400,7 +1397,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1420,7 +1417,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1440,7 +1437,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1460,7 +1457,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1480,7 +1477,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1500,7 +1497,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1520,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1540,7 +1537,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1560,7 +1557,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1580,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1600,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1620,7 +1617,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B7490-8EAA-42CE-9C74-23326A2EB8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B19E0D-2036-49C4-A7FF-460466F3FA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,6 +237,9 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,257 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1030,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1117,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1137,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1157,7 +1410,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1177,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1197,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1217,7 +1470,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1237,7 +1490,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1257,7 +1510,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1277,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1297,7 +1550,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1317,7 +1570,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1337,7 +1590,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1357,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1377,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1397,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1417,7 +1670,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1437,7 +1690,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1457,7 +1710,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1477,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1497,7 +1750,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1517,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1537,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1557,7 +1810,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1577,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1597,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1617,7 +1870,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1625,93 +1878,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="29" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="28" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="27" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="54" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="53" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="52" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="51" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="50" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="49" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="48" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="47" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="46" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="45" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="43" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="41" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="40" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="39" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="38" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="37" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="34" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="uniqueValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="uniqueValues" dxfId="31" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="30" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="29" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="28" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="27" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16">
     <cfRule type="uniqueValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E14:E16">
     <cfRule type="uniqueValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E2">
     <cfRule type="uniqueValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E2">
     <cfRule type="uniqueValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E2">
     <cfRule type="uniqueValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E2">
     <cfRule type="uniqueValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E2">
     <cfRule type="uniqueValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E3:E10">
     <cfRule type="uniqueValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E10">
     <cfRule type="uniqueValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E10">
     <cfRule type="uniqueValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E10">
     <cfRule type="uniqueValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E10">
     <cfRule type="uniqueValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E5">
     <cfRule type="uniqueValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E5">
     <cfRule type="uniqueValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E5">
     <cfRule type="uniqueValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E5">
     <cfRule type="uniqueValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E5">
     <cfRule type="uniqueValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E7">
     <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E7">
     <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E7">
     <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
+  <conditionalFormatting sqref="E7">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
+  <conditionalFormatting sqref="E7">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D4F09-74D7-49A8-A0AE-A415CDFC2CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07936B49-7FA7-4B71-BA8F-FDFDEA40316B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Functionality</t>
   </si>
@@ -68,7 +68,13 @@
     <t xml:space="preserve">Search product not in Catalog </t>
   </si>
   <si>
+    <t xml:space="preserve">Search product in Catalog </t>
+  </si>
+  <si>
     <t>TC04_Search_product_not_in_Catalog</t>
+  </si>
+  <si>
+    <t>TC05_Search_product_in_Catalog</t>
   </si>
   <si>
     <t>TC03_Verify_BLP_Solutions_ContactUS</t>
@@ -76,6 +82,20 @@
   <si>
     <t>1. Go to home page
 2. Verify brands, solutions, resources, contact and about us pages, Search filed and quick order link</t>
+  </si>
+  <si>
+    <t>TC07_SearchCategory</t>
+  </si>
+  <si>
+    <t>User should be directed to category page</t>
+  </si>
+  <si>
+    <t>TC6_SearchResults_Typeahead</t>
+  </si>
+  <si>
+    <t>1. when user typing, type ahead should work
+2. User should be directed to search results list
+3. Dimensions should appear on left</t>
   </si>
   <si>
     <t>Yes</t>
@@ -204,7 +224,257 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -667,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD29"/>
+      <selection activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -696,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -716,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -730,13 +1000,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -750,54 +1020,189 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="11" priority="30"/>
+    <cfRule type="uniqueValues" dxfId="36" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="10" priority="29"/>
+    <cfRule type="uniqueValues" dxfId="35" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="9" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="34" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="8" priority="27"/>
+    <cfRule type="uniqueValues" dxfId="33" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="7" priority="26"/>
+    <cfRule type="uniqueValues" dxfId="32" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="31" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="30" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="29" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="28" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="27" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="26" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="25" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="24" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="23" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="21" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="20" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="19" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="18" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="16" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="15" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="uniqueValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="uniqueValues" dxfId="1" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4">
-    <cfRule type="uniqueValues" dxfId="0" priority="184"/>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="uniqueValues" dxfId="1" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="uniqueValues" dxfId="0" priority="194"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07936B49-7FA7-4B71-BA8F-FDFDEA40316B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690D02E6-45FC-4359-B9F4-7EE097791A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -84,10 +84,126 @@
 2. Verify brands, solutions, resources, contact and about us pages, Search filed and quick order link</t>
   </si>
   <si>
+    <t>TC32_Verify_store_location</t>
+  </si>
+  <si>
+    <t>1. Go to site and then go to store location page
+2. Search for store
+3. Verify the displayed results</t>
+  </si>
+  <si>
+    <t>TC31_Verify_login</t>
+  </si>
+  <si>
+    <t>User should be able to login successfully</t>
+  </si>
+  <si>
+    <t>All the pages must be displayed</t>
+  </si>
+  <si>
+    <t>TC29_VerifyALL_Links_Myaccount</t>
+  </si>
+  <si>
+    <t>Products must be added to store room successfully</t>
+  </si>
+  <si>
+    <t>TC27_Verify_Store_room</t>
+  </si>
+  <si>
+    <t>TC09_Verify_Documented_Savings</t>
+  </si>
+  <si>
+    <t>Article should display</t>
+  </si>
+  <si>
+    <t>TC08_VerifyProductListPLP</t>
+  </si>
+  <si>
+    <t>Should display products list</t>
+  </si>
+  <si>
     <t>TC07_SearchCategory</t>
   </si>
   <si>
     <t>User should be directed to category page</t>
+  </si>
+  <si>
+    <t>TC10_Verify_Search_results</t>
+  </si>
+  <si>
+    <t>Search results must display</t>
+  </si>
+  <si>
+    <t>TC11_Verify_PDP_From_Search_results</t>
+  </si>
+  <si>
+    <t>PDP should display</t>
+  </si>
+  <si>
+    <t>TC12_Verify_AddToCart_from_PDP</t>
+  </si>
+  <si>
+    <t>1. Item should be added to cart
+2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>TC13_Verify_Search_Dimensions</t>
+  </si>
+  <si>
+    <t>Search results should appear
+Dimensions appear on left</t>
+  </si>
+  <si>
+    <t>TC14_Verify_AddToCart_from_Search</t>
+  </si>
+  <si>
+    <t>Item should be added to cart</t>
+  </si>
+  <si>
+    <t>TC15_Verify_ViewFullCart</t>
+  </si>
+  <si>
+    <t>1. Cart should display
+2. All items in cart must have pricing</t>
+  </si>
+  <si>
+    <t>Items  and price must update</t>
+  </si>
+  <si>
+    <t>TC17_Verify_CheckoutButton</t>
+  </si>
+  <si>
+    <t>TC18_Verify_ShippingPage</t>
+  </si>
+  <si>
+    <t>Shipping page must appear</t>
+  </si>
+  <si>
+    <t>TC26_Verify_Clear_Cart</t>
+  </si>
+  <si>
+    <t>All the items must be removed from the cart</t>
+  </si>
+  <si>
+    <t>TC16_Update_Quantity_CartPage</t>
+  </si>
+  <si>
+    <t>TC19_Verify_ShippingMethod</t>
+  </si>
+  <si>
+    <t>Shipping method page should display</t>
+  </si>
+  <si>
+    <t>TC23_Verify_UserRegistration</t>
+  </si>
+  <si>
+    <t>User should be registered and logged in</t>
+  </si>
+  <si>
+    <t>TC30_Search_Typeahead</t>
+  </si>
+  <si>
+    <t>Type ahead must be displayed</t>
   </si>
   <si>
     <t>TC6_SearchResults_Typeahead</t>
@@ -98,13 +214,29 @@
 3. Dimensions should appear on left</t>
   </si>
   <si>
+    <t>TC02_Verify_MYACC_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Verify Myaccounts Section for Registered User</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>TC02_Login_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Verify Login for Registered User</t>
+  </si>
+  <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>No</t>
+    <t>TC40_Adding_MultipleItems_QuickOrder</t>
+  </si>
+  <si>
+    <t>1. more than 10 Items should be added to cart
+2. Appropriate inventory message must be displayed</t>
   </si>
 </sst>
 </file>
@@ -174,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,6 +329,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -204,7 +349,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -213,7 +358,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -224,7 +385,437 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -937,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E2:E6"/>
+      <selection activeCell="E7" sqref="E7:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -966,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -985,8 +1576,8 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
+      <c r="E2" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1002,11 +1593,11 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
+      <c r="E3" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1025,8 +1616,8 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
+      <c r="E4" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1045,8 +1636,8 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
+      <c r="E5" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1060,13 +1651,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1080,129 +1671,698 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F22:F28">
+    <cfRule type="uniqueValues" dxfId="79" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="78" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="77" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="76" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="75" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="74" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="73" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="72" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="71" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="70" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="69" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="68" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="67" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="66" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="65" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="64" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="63" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="62" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="61" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="60" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="59" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="58" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="uniqueValues" dxfId="57" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="uniqueValues" dxfId="56" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="55" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="54" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="53" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="52" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="uniqueValues" dxfId="51" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="uniqueValues" dxfId="50" priority="51"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="36" priority="40"/>
+    <cfRule type="uniqueValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="35" priority="39"/>
+    <cfRule type="uniqueValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="34" priority="38"/>
+    <cfRule type="uniqueValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="33" priority="37"/>
+    <cfRule type="uniqueValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="uniqueValues" dxfId="32" priority="36"/>
+    <cfRule type="uniqueValues" dxfId="45" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="43" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="41" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="31" priority="30"/>
+    <cfRule type="uniqueValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="30" priority="29"/>
+    <cfRule type="uniqueValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="29" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="28" priority="27"/>
+    <cfRule type="uniqueValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="27" priority="26"/>
+    <cfRule type="uniqueValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="26" priority="25"/>
+    <cfRule type="uniqueValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="25" priority="24"/>
+    <cfRule type="uniqueValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="24" priority="23"/>
+    <cfRule type="uniqueValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="23" priority="22"/>
+    <cfRule type="uniqueValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="22" priority="21"/>
+    <cfRule type="uniqueValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="21" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="20" priority="19"/>
+    <cfRule type="uniqueValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="19" priority="18"/>
+    <cfRule type="uniqueValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="18" priority="17"/>
+    <cfRule type="uniqueValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="17" priority="16"/>
+    <cfRule type="uniqueValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="16" priority="15"/>
+    <cfRule type="uniqueValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="15" priority="14"/>
+    <cfRule type="uniqueValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
+    <cfRule type="uniqueValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="13" priority="12"/>
+    <cfRule type="uniqueValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="12" priority="11"/>
+    <cfRule type="uniqueValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="11" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="10" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="9" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="8" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="7" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="6" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="5" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="4" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="3" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="uniqueValues" dxfId="1" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E7">
-    <cfRule type="uniqueValues" dxfId="0" priority="194"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E29">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690D02E6-45FC-4359-B9F4-7EE097791A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF663F04-B6BF-40C6-BDC0-236D4520B489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,6 +237,9 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1534,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E29"/>
+      <selection activeCell="E3" sqref="E3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1597,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1617,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1637,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1657,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1677,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1697,7 +1700,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1717,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1737,7 +1740,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1757,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1777,7 +1780,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1797,7 +1800,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1817,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1837,7 +1840,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1857,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1877,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1897,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1917,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1937,7 +1940,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1957,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1977,7 +1980,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1997,7 +2000,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -2017,7 +2020,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -2037,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -2057,7 +2060,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -2077,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -2097,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -2117,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -2214,19 +2217,19 @@
   <conditionalFormatting sqref="E14:E16">
     <cfRule type="uniqueValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF663F04-B6BF-40C6-BDC0-236D4520B489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422A6176-28B9-479E-A982-10ABE0604162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,9 +237,6 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1534,7 +1561,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E29"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1600,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1620,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1640,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1660,7 +1687,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1680,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1700,7 +1727,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1720,7 +1747,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1740,7 +1767,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1760,7 +1787,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1780,7 +1807,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1800,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1820,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1840,7 +1867,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1860,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1880,7 +1907,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1900,7 +1927,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1920,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1940,7 +1967,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1960,7 +1987,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1980,7 +2007,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -2000,7 +2027,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -2020,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -2040,7 +2067,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -2060,7 +2087,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -2080,7 +2107,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -2100,7 +2127,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -2120,7 +2147,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -2128,244 +2155,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="79" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="78" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="77" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="76" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="75" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="74" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="73" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="72" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="71" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="70" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="69" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="68" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="67" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="66" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="65" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="64" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="63" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="62" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="61" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="60" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="59" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="58" priority="59"/>
+    <cfRule type="uniqueValues" dxfId="82" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="2" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="80" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="79" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="78" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="77" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="76" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="75" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="74" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="73" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="72" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="71" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="70" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="69" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="68" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="67" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="66" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="65" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="64" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="63" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="62" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="57" priority="58"/>
+    <cfRule type="uniqueValues" dxfId="60" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="56" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="55" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="54" priority="55"/>
+    <cfRule type="uniqueValues" dxfId="59" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="58" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="57" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="53" priority="54"/>
+    <cfRule type="uniqueValues" dxfId="56" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="52" priority="53"/>
+    <cfRule type="uniqueValues" dxfId="55" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="51" priority="52"/>
+    <cfRule type="uniqueValues" dxfId="54" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="50" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="49" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="48" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="47" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="46" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="45" priority="46"/>
+    <cfRule type="uniqueValues" dxfId="53" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="51" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="50" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="49" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="48" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="44" priority="45"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="43" priority="44"/>
+    <cfRule type="uniqueValues" dxfId="46" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="42" priority="43"/>
+    <cfRule type="uniqueValues" dxfId="45" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="41" priority="42"/>
+    <cfRule type="uniqueValues" dxfId="44" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="40" priority="41"/>
+    <cfRule type="uniqueValues" dxfId="43" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="39" priority="40"/>
+    <cfRule type="uniqueValues" dxfId="42" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="38" priority="39"/>
+    <cfRule type="uniqueValues" dxfId="41" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="37" priority="38"/>
+    <cfRule type="uniqueValues" dxfId="40" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="36" priority="37"/>
+    <cfRule type="uniqueValues" dxfId="39" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="35" priority="36"/>
+    <cfRule type="uniqueValues" dxfId="38" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="34" priority="35"/>
+    <cfRule type="uniqueValues" dxfId="37" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="33" priority="34"/>
+    <cfRule type="uniqueValues" dxfId="36" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="32" priority="33"/>
+    <cfRule type="uniqueValues" dxfId="35" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="31" priority="32"/>
+    <cfRule type="uniqueValues" dxfId="34" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="30" priority="31"/>
+    <cfRule type="uniqueValues" dxfId="33" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="29" priority="30"/>
+    <cfRule type="uniqueValues" dxfId="32" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="28" priority="29"/>
+    <cfRule type="uniqueValues" dxfId="31" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="27" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="30" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="26" priority="27"/>
+    <cfRule type="uniqueValues" dxfId="29" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="25" priority="26"/>
+    <cfRule type="uniqueValues" dxfId="28" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="24" priority="25"/>
+    <cfRule type="uniqueValues" dxfId="27" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="23" priority="24"/>
+    <cfRule type="uniqueValues" dxfId="26" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="22" priority="23"/>
+    <cfRule type="uniqueValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="21" priority="22"/>
+    <cfRule type="uniqueValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="20" priority="21"/>
+    <cfRule type="uniqueValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="19" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="22" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
+    <cfRule type="uniqueValues" dxfId="21" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="17" priority="18"/>
+    <cfRule type="uniqueValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="16" priority="17"/>
+    <cfRule type="uniqueValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="15" priority="16"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="14" priority="15"/>
+    <cfRule type="uniqueValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
+    <cfRule type="uniqueValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E29">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422A6176-28B9-479E-A982-10ABE0604162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BBCF51-84D2-4EB9-AC67-87A0DB2F5353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,6 +237,9 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -385,37 +388,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1560,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1647,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1667,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1687,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1707,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1727,7 +1700,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1747,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1767,7 +1740,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1787,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1807,7 +1780,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1827,7 +1800,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1847,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1867,7 +1840,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1887,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1907,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1927,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1947,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1967,7 +1940,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1987,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -2007,7 +1980,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -2027,7 +2000,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -2047,7 +2020,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -2067,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -2087,7 +2060,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -2107,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -2127,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -2147,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -2155,109 +2128,109 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="82" priority="177"/>
+    <cfRule type="uniqueValues" dxfId="79" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="2" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="80" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="79" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="78" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="77" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="76" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="75" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="74" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="73" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="72" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="71" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="70" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="69" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="68" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="67" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="66" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="65" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="64" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="63" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="62" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="61" priority="59"/>
+    <cfRule type="uniqueValues" dxfId="78" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="77" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="76" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="75" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="74" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="73" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="72" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="71" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="70" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="69" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="68" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="67" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="66" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="65" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="64" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="63" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="62" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="61" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="60" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="59" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="60" priority="58"/>
+    <cfRule type="uniqueValues" dxfId="58" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="59" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="58" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="57" priority="55"/>
+    <cfRule type="uniqueValues" dxfId="57" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="56" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="55" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="56" priority="54"/>
+    <cfRule type="uniqueValues" dxfId="54" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="55" priority="53"/>
+    <cfRule type="uniqueValues" dxfId="53" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="54" priority="52"/>
+    <cfRule type="uniqueValues" dxfId="52" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="53" priority="51"/>
+    <cfRule type="uniqueValues" dxfId="51" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
     <cfRule type="uniqueValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="51" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="50" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="49" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="48" priority="46"/>
+    <cfRule type="uniqueValues" dxfId="50" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="49" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="48" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="47" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="0" priority="45"/>
@@ -2364,34 +2337,34 @@
   <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BBCF51-84D2-4EB9-AC67-87A0DB2F5353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AAA6AE-0A7E-4EFC-88F5-C77177C7F75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,9 +237,6 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E3:E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1600,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1620,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1640,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1660,7 +1657,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1680,7 +1677,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1700,7 +1697,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1720,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1740,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1760,7 +1757,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1780,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1800,7 +1797,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1820,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1840,7 +1837,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1860,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1880,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1900,7 +1897,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1920,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1940,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1960,7 +1957,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1980,7 +1977,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -2000,7 +1997,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -2020,7 +2017,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -2040,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -2060,7 +2057,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -2080,7 +2077,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -2100,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -2120,7 +2117,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -2217,7 +2214,7 @@
   <conditionalFormatting sqref="E14:E16">
     <cfRule type="uniqueValues" dxfId="51" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Master_executors\Prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AAA6AE-0A7E-4EFC-88F5-C77177C7F75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA961156-C735-41AB-8BF6-6E46D0305195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,6967 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="776">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1531,7 +8491,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,244 +9085,2188 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="79" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="2" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="78" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="77" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="76" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="75" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="74" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="73" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="72" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="71" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="70" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="69" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="68" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="67" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="66" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="65" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="64" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="63" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="62" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="61" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="60" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="59" priority="59"/>
+    <cfRule type="uniqueValues" dxfId="775" priority="866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="58" priority="58"/>
+    <cfRule type="uniqueValues" dxfId="774" priority="747"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="57" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="56" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="55" priority="55"/>
+    <cfRule type="uniqueValues" dxfId="773" priority="746"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="54" priority="54"/>
+    <cfRule type="uniqueValues" dxfId="772" priority="743"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="53" priority="53"/>
+    <cfRule type="uniqueValues" dxfId="771" priority="742"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="52" priority="52"/>
+    <cfRule type="uniqueValues" dxfId="770" priority="741"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="51" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="50" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="49" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="48" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="47" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="0" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="46" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="45" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="44" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="43" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="42" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="41" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="40" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="39" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="38" priority="36"/>
+    <cfRule type="uniqueValues" dxfId="769" priority="740"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="768" priority="729"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="767" priority="728"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="766" priority="727"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="765" priority="726"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="764" priority="725"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="37" priority="35"/>
+    <cfRule type="uniqueValues" dxfId="763" priority="724"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="36" priority="34"/>
+    <cfRule type="uniqueValues" dxfId="762" priority="723"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="35" priority="33"/>
+    <cfRule type="uniqueValues" dxfId="761" priority="722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="34" priority="32"/>
+    <cfRule type="uniqueValues" dxfId="760" priority="721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="33" priority="31"/>
+    <cfRule type="uniqueValues" dxfId="759" priority="720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="32" priority="30"/>
+    <cfRule type="uniqueValues" dxfId="758" priority="719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="31" priority="29"/>
+    <cfRule type="uniqueValues" dxfId="757" priority="718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="30" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="756" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="29" priority="27"/>
+    <cfRule type="uniqueValues" dxfId="755" priority="716"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="28" priority="26"/>
+    <cfRule type="uniqueValues" dxfId="754" priority="715"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="27" priority="25"/>
+    <cfRule type="uniqueValues" dxfId="753" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="26" priority="24"/>
+    <cfRule type="uniqueValues" dxfId="752" priority="713"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="25" priority="23"/>
+    <cfRule type="uniqueValues" dxfId="751" priority="712"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="24" priority="22"/>
+    <cfRule type="uniqueValues" dxfId="750" priority="711"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="23" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="22" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="21" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="20" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="19" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="uniqueValues" dxfId="18" priority="16"/>
+    <cfRule type="uniqueValues" dxfId="749" priority="710"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="748" priority="709"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="747" priority="708"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="746" priority="707"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="745" priority="706"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="744" priority="705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="17" priority="15"/>
+    <cfRule type="uniqueValues" dxfId="743" priority="704"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="16" priority="14"/>
+    <cfRule type="uniqueValues" dxfId="742" priority="703"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="15" priority="13"/>
+    <cfRule type="uniqueValues" dxfId="741" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="14" priority="12"/>
+    <cfRule type="uniqueValues" dxfId="740" priority="701"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="13" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="11" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="10" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="8" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="7" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
-    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="739" priority="700"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="738" priority="689"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="737" priority="688"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="736" priority="687"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="735" priority="686"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="734" priority="685"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="733" priority="684"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="732" priority="683"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="731" priority="682"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="730" priority="681"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="729" priority="680"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="728" priority="679"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="727" priority="678"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="726" priority="677"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="725" priority="676"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="724" priority="675"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="723" priority="674"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="722" priority="673"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="721" priority="672"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="720" priority="671"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="719" priority="670"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="718" priority="669"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="717" priority="668"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="716" priority="667"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="715" priority="666"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="714" priority="665"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="713" priority="664"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="712" priority="663"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="711" priority="662"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="710" priority="661"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="709" priority="660"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="708" priority="659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="707" priority="658"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="706" priority="657"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="705" priority="656"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="704" priority="655"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="703" priority="654"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="702" priority="653"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="701" priority="652"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="700" priority="651"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="699" priority="650"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="698" priority="649"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="697" priority="648"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="696" priority="647"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="695" priority="646"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="694" priority="645"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="373" priority="870"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="693" priority="898"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="692" priority="644"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="691" priority="643"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="690" priority="642"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="689" priority="641"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="688" priority="640"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="687" priority="639"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="686" priority="638"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="685" priority="637"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="684" priority="636"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="683" priority="635"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="682" priority="634"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="681" priority="633"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="680" priority="632"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="679" priority="631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="678" priority="630"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="677" priority="629"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="676" priority="628"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="675" priority="627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="674" priority="626"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="673" priority="625"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="672" priority="624"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="671" priority="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="670" priority="622"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="669" priority="621"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="668" priority="620"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="667" priority="619"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="666" priority="618"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="665" priority="617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="664" priority="616"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="663" priority="615"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="662" priority="614"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="661" priority="613"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="660" priority="612"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="659" priority="611"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="658" priority="610"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="657" priority="609"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="656" priority="608"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="655" priority="607"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="654" priority="606"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="653" priority="605"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="652" priority="603"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="651" priority="602"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="650" priority="601"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="649" priority="600"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="648" priority="599"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="647" priority="598"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="646" priority="597"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="645" priority="596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="644" priority="595"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="643" priority="594"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="642" priority="593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="641" priority="592"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="640" priority="591"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="639" priority="590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="638" priority="589"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="637" priority="604"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="636" priority="588"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="635" priority="587"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="634" priority="586"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="633" priority="585"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="632" priority="584"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="631" priority="583"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="630" priority="582"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="629" priority="581"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="628" priority="580"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="627" priority="579"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="626" priority="578"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="625" priority="577"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="624" priority="576"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="623" priority="575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="622" priority="574"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="621" priority="573"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="620" priority="572"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="619" priority="571"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="618" priority="570"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="617" priority="569"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="616" priority="568"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="615" priority="567"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="614" priority="566"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="613" priority="565"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="612" priority="564"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="611" priority="563"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="610" priority="562"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="609" priority="561"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="608" priority="560"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="607" priority="559"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="606" priority="558"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="605" priority="557"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="604" priority="556"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="603" priority="555"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="602" priority="554"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="601" priority="553"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="600" priority="552"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="599" priority="551"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="598" priority="550"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="597" priority="549"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="596" priority="548"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="595" priority="547"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="594" priority="546"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="593" priority="545"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="592" priority="544"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="591" priority="543"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="590" priority="542"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="589" priority="541"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="588" priority="540"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="uniqueValues" dxfId="587" priority="539"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="586" priority="538"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="585" priority="537"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="584" priority="536"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="583" priority="535"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="582" priority="534"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="581" priority="533"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="580" priority="532"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="579" priority="531"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="578" priority="530"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="577" priority="529"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="576" priority="528"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="575" priority="527"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="574" priority="526"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="573" priority="525"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="572" priority="524"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="571" priority="523"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="570" priority="522"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="569" priority="521"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="568" priority="520"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="567" priority="519"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="566" priority="518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="565" priority="517"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="564" priority="516"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="563" priority="515"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="562" priority="514"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="561" priority="513"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="560" priority="512"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="559" priority="511"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="558" priority="510"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="557" priority="509"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="556" priority="508"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="555" priority="507"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="554" priority="506"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="553" priority="505"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E29">
+    <cfRule type="uniqueValues" dxfId="552" priority="504"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="535" priority="502"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="534" priority="501"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="533" priority="500"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="532" priority="499"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="531" priority="498"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="530" priority="497"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="529" priority="496"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="528" priority="495"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="527" priority="494"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="526" priority="493"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="525" priority="492"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="524" priority="491"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="523" priority="490"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="522" priority="489"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="521" priority="488"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="520" priority="503"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="519" priority="487"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="518" priority="486"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="517" priority="485"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="516" priority="484"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="515" priority="483"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="514" priority="482"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="513" priority="481"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="512" priority="480"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="511" priority="479"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="510" priority="478"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="509" priority="477"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="508" priority="476"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="507" priority="475"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="506" priority="474"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="505" priority="473"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="504" priority="472"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="503" priority="471"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="502" priority="470"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="501" priority="469"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="500" priority="468"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="499" priority="467"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="498" priority="466"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="497" priority="465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="496" priority="464"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="495" priority="463"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="494" priority="462"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="493" priority="461"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="492" priority="460"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="491" priority="459"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="490" priority="458"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="489" priority="457"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="488" priority="456"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="487" priority="455"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="486" priority="454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="485" priority="453"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="484" priority="452"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="483" priority="451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="482" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="481" priority="449"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="480" priority="448"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="479" priority="447"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="478" priority="446"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="477" priority="445"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="476" priority="444"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="475" priority="443"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="474" priority="442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="473" priority="441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="472" priority="440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="471" priority="439"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="470" priority="438"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="469" priority="437"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="468" priority="436"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="467" priority="435"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="466" priority="434"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="465" priority="433"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="464" priority="432"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="463" priority="431"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="462" priority="430"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="461" priority="429"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="460" priority="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="uniqueValues" dxfId="459" priority="427"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="458" priority="426"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="457" priority="425"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="456" priority="424"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="455" priority="423"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="454" priority="422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="453" priority="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="452" priority="420"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="451" priority="419"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="450" priority="418"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="449" priority="417"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="448" priority="416"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="447" priority="415"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="446" priority="414"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="445" priority="413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="uniqueValues" dxfId="444" priority="412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="443" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="442" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="441" priority="409"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="440" priority="408"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="439" priority="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="438" priority="406"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="437" priority="405"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="436" priority="404"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="435" priority="403"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="434" priority="402"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="433" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="432" priority="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="431" priority="399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="430" priority="398"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="uniqueValues" dxfId="429" priority="397"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="428" priority="396"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="427" priority="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="426" priority="394"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="425" priority="393"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="424" priority="392"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="423" priority="391"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="422" priority="390"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="421" priority="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="420" priority="388"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="419" priority="387"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="418" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="417" priority="385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="416" priority="384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="415" priority="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="414" priority="382"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="413" priority="381"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="412" priority="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="411" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="410" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="409" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="408" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="407" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="406" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="405" priority="373"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="404" priority="372"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="403" priority="371"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="402" priority="370"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="401" priority="369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="400" priority="368"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="399" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="398" priority="366"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="397" priority="365"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="396" priority="364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="395" priority="363"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="394" priority="362"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="393" priority="361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="392" priority="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="391" priority="359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="390" priority="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E29">
+    <cfRule type="uniqueValues" dxfId="389" priority="357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="388" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="387" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="386" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="385" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="384" priority="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="383" priority="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="382" priority="350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="381" priority="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="380" priority="348"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="379" priority="347"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="378" priority="346"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="377" priority="345"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="376" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="375" priority="343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="374" priority="342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="340" priority="340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="339" priority="339"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="338" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="337" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="336" priority="336"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="335" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="334" priority="334"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="333" priority="333"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="332" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="331" priority="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="330" priority="330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="329" priority="329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="328" priority="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="327" priority="327"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="326" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="325" priority="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="324" priority="325"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="323" priority="324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="322" priority="323"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="321" priority="322"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="320" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="319" priority="320"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="318" priority="319"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="317" priority="318"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="316" priority="317"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="315" priority="316"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="314" priority="315"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="313" priority="314"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="312" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="311" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="310" priority="311"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="309" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="308" priority="309"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="307" priority="308"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="306" priority="307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="305" priority="306"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="304" priority="305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="303" priority="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="302" priority="303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="301" priority="302"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="300" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="299" priority="300"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="298" priority="299"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="297" priority="298"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="296" priority="297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="295" priority="296"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="294" priority="295"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="293" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="292" priority="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="291" priority="291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="290" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="289" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="288" priority="288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="287" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="286" priority="286"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="285" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="284" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="283" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="282" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="281" priority="281"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="280" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="279" priority="279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="278" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="277" priority="278"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="276" priority="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="275" priority="276"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="274" priority="275"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="273" priority="274"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="272" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="271" priority="272"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="270" priority="271"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="269" priority="270"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="268" priority="269"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="267" priority="268"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="266" priority="267"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="265" priority="266"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="264" priority="265"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="263" priority="264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="262" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="261" priority="262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="260" priority="261"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="259" priority="260"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="258" priority="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="257" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="256" priority="257"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="255" priority="256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="254" priority="255"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="253" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="252" priority="253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="251" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="250" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="249" priority="250"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="248" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="247" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="246" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="245" priority="246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="244" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="243" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="242" priority="243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="241" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="240" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="239" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="238" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="237" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="236" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="235" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="234" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="233" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="232" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="231" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="230" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="229" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="228" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="227" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="226" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="225" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="224" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="223" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="222" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="221" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="220" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="219" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="218" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="217" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="216" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="215" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="214" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="213" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="212" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="211" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="210" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="209" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="208" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="207" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="206" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="205" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="204" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="203" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="202" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="201" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="200" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="199" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="198" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="197" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="196" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="195" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="194" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="193" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="192" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="191" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="190" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="189" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="188" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="187" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="186" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="185" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="184" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="183" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="182" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="181" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="180" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="179" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="178" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="177" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="176" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="175" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="174" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="173" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="172" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="171" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="170" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="169" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="168" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="167" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="166" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="165" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="164" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="163" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="162" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="161" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="160" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="159" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="158" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="157" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="156" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="155" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="154" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="153" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="152" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="151" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="150" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="149" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="148" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="147" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="146" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="145" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="144" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="143" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="142" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="141" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="140" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="139" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="138" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="137" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="136" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="135" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="134" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="133" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="132" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="131" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="130" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="129" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="128" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="127" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="126" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="125" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="124" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="123" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="122" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="121" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="120" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="119" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="118" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="117" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="116" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="115" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="114" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="113" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="112" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="111" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="110" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="109" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="108" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="107" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="106" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="105" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="104" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="103" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="102" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="101" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="100" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="99" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="98" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="97" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="96" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="95" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="94" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="93" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="92" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="91" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="90" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="89" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="88" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="87" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="86" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="85" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="84" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="83" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="82" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="81" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="80" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="79" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="78" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="77" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="76" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="75" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="74" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="73" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="72" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="71" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="70" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="69" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="68" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="67" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="66" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="65" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="64" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="63" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="62" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="61" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="60" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="59" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="58" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="57" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="56" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="55" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="54" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="53" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="52" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="51" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="50" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="49" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="48" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="47" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="46" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="45" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="43" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="41" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="40" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="39" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="38" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="37" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="34" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="31" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="30" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="29" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="28" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="27" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="26" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="25" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="23" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="22" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="19" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="16" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA961156-C735-41AB-8BF6-6E46D0305195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4B444-53D7-42CE-B00E-11C9F98AA6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -238,6 +238,9 @@
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +388,3627 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="776">
+  <dxfs count="1138">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8490,8 +12113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8537,7 +12160,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -8557,7 +12180,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -8577,7 +12200,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -8597,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -8617,7 +12240,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -8637,7 +12260,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -8657,7 +12280,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -8677,7 +12300,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -8697,7 +12320,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -8717,7 +12340,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -8737,7 +12360,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -8757,7 +12380,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -8777,7 +12400,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -8797,7 +12420,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -8817,7 +12440,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -8837,7 +12460,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -8857,7 +12480,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -8877,7 +12500,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -8897,7 +12520,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -8917,7 +12540,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -8937,7 +12560,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -8977,7 +12600,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -8997,7 +12620,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -9017,7 +12640,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -9037,7 +12660,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -9057,7 +12680,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -9077,7 +12700,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -9085,2187 +12708,3417 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="775" priority="866"/>
+    <cfRule type="uniqueValues" dxfId="1137" priority="1276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="774" priority="747"/>
+    <cfRule type="uniqueValues" dxfId="1136" priority="1157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="773" priority="746"/>
+    <cfRule type="uniqueValues" dxfId="1135" priority="1156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="772" priority="743"/>
+    <cfRule type="uniqueValues" dxfId="1134" priority="1153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="771" priority="742"/>
+    <cfRule type="uniqueValues" dxfId="1133" priority="1152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="770" priority="741"/>
+    <cfRule type="uniqueValues" dxfId="1132" priority="1151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="769" priority="740"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="768" priority="729"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="767" priority="728"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="766" priority="727"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="765" priority="726"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="764" priority="725"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="763" priority="724"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="762" priority="723"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="761" priority="722"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="760" priority="721"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="759" priority="720"/>
+    <cfRule type="uniqueValues" dxfId="1131" priority="1150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1130" priority="1139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1129" priority="1138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1128" priority="1137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1127" priority="1136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1126" priority="1135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1125" priority="1134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1124" priority="1133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1123" priority="1132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1122" priority="1131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1121" priority="1130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="758" priority="719"/>
+    <cfRule type="uniqueValues" dxfId="1120" priority="1129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="757" priority="718"/>
+    <cfRule type="uniqueValues" dxfId="1119" priority="1128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="756" priority="717"/>
+    <cfRule type="uniqueValues" dxfId="1118" priority="1127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="755" priority="716"/>
+    <cfRule type="uniqueValues" dxfId="1117" priority="1126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="754" priority="715"/>
+    <cfRule type="uniqueValues" dxfId="1116" priority="1125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="753" priority="714"/>
+    <cfRule type="uniqueValues" dxfId="1115" priority="1124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="752" priority="713"/>
+    <cfRule type="uniqueValues" dxfId="1114" priority="1123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="751" priority="712"/>
+    <cfRule type="uniqueValues" dxfId="1113" priority="1122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="750" priority="711"/>
+    <cfRule type="uniqueValues" dxfId="1112" priority="1121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="749" priority="710"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="748" priority="709"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="747" priority="708"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="746" priority="707"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="745" priority="706"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="744" priority="705"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="743" priority="704"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="742" priority="703"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="741" priority="702"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="740" priority="701"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="739" priority="700"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="738" priority="689"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="737" priority="688"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="736" priority="687"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="735" priority="686"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="734" priority="685"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="733" priority="684"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="732" priority="683"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="731" priority="682"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="730" priority="681"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="729" priority="680"/>
+    <cfRule type="uniqueValues" dxfId="1111" priority="1120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1110" priority="1119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1109" priority="1118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1108" priority="1117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1107" priority="1116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1106" priority="1115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1105" priority="1114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1104" priority="1113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1103" priority="1112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1102" priority="1111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="1101" priority="1110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1100" priority="1099"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1099" priority="1098"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1098" priority="1097"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1097" priority="1096"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1096" priority="1095"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1095" priority="1094"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1094" priority="1093"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1093" priority="1092"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1092" priority="1091"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1091" priority="1090"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="728" priority="679"/>
+    <cfRule type="uniqueValues" dxfId="1090" priority="1089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="727" priority="678"/>
+    <cfRule type="uniqueValues" dxfId="1089" priority="1088"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="726" priority="677"/>
+    <cfRule type="uniqueValues" dxfId="1088" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="725" priority="676"/>
+    <cfRule type="uniqueValues" dxfId="1087" priority="1086"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="724" priority="675"/>
+    <cfRule type="uniqueValues" dxfId="1086" priority="1085"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="723" priority="674"/>
+    <cfRule type="uniqueValues" dxfId="1085" priority="1084"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="722" priority="673"/>
+    <cfRule type="uniqueValues" dxfId="1084" priority="1083"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="721" priority="672"/>
+    <cfRule type="uniqueValues" dxfId="1083" priority="1082"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="720" priority="671"/>
+    <cfRule type="uniqueValues" dxfId="1082" priority="1081"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="719" priority="670"/>
+    <cfRule type="uniqueValues" dxfId="1081" priority="1080"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="718" priority="669"/>
+    <cfRule type="uniqueValues" dxfId="1080" priority="1079"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="717" priority="668"/>
+    <cfRule type="uniqueValues" dxfId="1079" priority="1078"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="716" priority="667"/>
+    <cfRule type="uniqueValues" dxfId="1078" priority="1077"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="715" priority="666"/>
+    <cfRule type="uniqueValues" dxfId="1077" priority="1076"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="714" priority="665"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="713" priority="664"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="712" priority="663"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="711" priority="662"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="710" priority="661"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="709" priority="660"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="708" priority="659"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="707" priority="658"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="706" priority="657"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="705" priority="656"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="704" priority="655"/>
+    <cfRule type="uniqueValues" dxfId="1076" priority="1075"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1075" priority="1074"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1074" priority="1073"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1073" priority="1072"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1072" priority="1071"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1071" priority="1070"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1070" priority="1069"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1069" priority="1068"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1068" priority="1067"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1067" priority="1066"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1066" priority="1065"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="703" priority="654"/>
+    <cfRule type="uniqueValues" dxfId="1065" priority="1064"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="702" priority="653"/>
+    <cfRule type="uniqueValues" dxfId="1064" priority="1063"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="701" priority="652"/>
+    <cfRule type="uniqueValues" dxfId="1063" priority="1062"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="700" priority="651"/>
+    <cfRule type="uniqueValues" dxfId="1062" priority="1061"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="699" priority="650"/>
+    <cfRule type="uniqueValues" dxfId="1061" priority="1060"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="698" priority="649"/>
+    <cfRule type="uniqueValues" dxfId="1060" priority="1059"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="697" priority="648"/>
+    <cfRule type="uniqueValues" dxfId="1059" priority="1058"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="696" priority="647"/>
+    <cfRule type="uniqueValues" dxfId="1058" priority="1057"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="695" priority="646"/>
+    <cfRule type="uniqueValues" dxfId="1057" priority="1056"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="694" priority="645"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="373" priority="870"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="693" priority="898"/>
+    <cfRule type="uniqueValues" dxfId="1056" priority="1055"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1055" priority="1280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1054" priority="1308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="692" priority="644"/>
+    <cfRule type="uniqueValues" dxfId="1053" priority="1054"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="691" priority="643"/>
+    <cfRule type="uniqueValues" dxfId="1052" priority="1053"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="690" priority="642"/>
+    <cfRule type="uniqueValues" dxfId="1051" priority="1052"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="689" priority="641"/>
+    <cfRule type="uniqueValues" dxfId="1050" priority="1051"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="688" priority="640"/>
+    <cfRule type="uniqueValues" dxfId="1049" priority="1050"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="687" priority="639"/>
+    <cfRule type="uniqueValues" dxfId="1048" priority="1049"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="686" priority="638"/>
+    <cfRule type="uniqueValues" dxfId="1047" priority="1048"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="685" priority="637"/>
+    <cfRule type="uniqueValues" dxfId="1046" priority="1047"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="684" priority="636"/>
+    <cfRule type="uniqueValues" dxfId="1045" priority="1046"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="683" priority="635"/>
+    <cfRule type="uniqueValues" dxfId="1044" priority="1045"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="682" priority="634"/>
+    <cfRule type="uniqueValues" dxfId="1043" priority="1044"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="681" priority="633"/>
+    <cfRule type="uniqueValues" dxfId="1042" priority="1043"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="680" priority="632"/>
+    <cfRule type="uniqueValues" dxfId="1041" priority="1042"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="679" priority="631"/>
+    <cfRule type="uniqueValues" dxfId="1040" priority="1041"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="678" priority="630"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="677" priority="629"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="676" priority="628"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="675" priority="627"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="674" priority="626"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="673" priority="625"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="672" priority="624"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="671" priority="623"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="670" priority="622"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="669" priority="621"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="668" priority="620"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="667" priority="619"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="666" priority="618"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="665" priority="617"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="664" priority="616"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="663" priority="615"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="662" priority="614"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="661" priority="613"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="660" priority="612"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="659" priority="611"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="658" priority="610"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="657" priority="609"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="656" priority="608"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="655" priority="607"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="654" priority="606"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="653" priority="605"/>
+    <cfRule type="uniqueValues" dxfId="1039" priority="1040"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1038" priority="1039"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1037" priority="1038"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1036" priority="1037"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1035" priority="1036"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1034" priority="1035"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1033" priority="1034"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1032" priority="1033"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1031" priority="1032"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1030" priority="1031"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="1029" priority="1030"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1028" priority="1029"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1027" priority="1028"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1026" priority="1027"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1025" priority="1026"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1024" priority="1025"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1023" priority="1024"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1022" priority="1023"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1021" priority="1022"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1020" priority="1021"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1019" priority="1020"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1018" priority="1019"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1017" priority="1018"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1016" priority="1017"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1015" priority="1016"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="1014" priority="1015"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="652" priority="603"/>
+    <cfRule type="uniqueValues" dxfId="1013" priority="1013"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="651" priority="602"/>
+    <cfRule type="uniqueValues" dxfId="1012" priority="1012"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="650" priority="601"/>
+    <cfRule type="uniqueValues" dxfId="1011" priority="1011"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="649" priority="600"/>
+    <cfRule type="uniqueValues" dxfId="1010" priority="1010"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="648" priority="599"/>
+    <cfRule type="uniqueValues" dxfId="1009" priority="1009"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="647" priority="598"/>
+    <cfRule type="uniqueValues" dxfId="1008" priority="1008"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="646" priority="597"/>
+    <cfRule type="uniqueValues" dxfId="1007" priority="1007"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="645" priority="596"/>
+    <cfRule type="uniqueValues" dxfId="1006" priority="1006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="644" priority="595"/>
+    <cfRule type="uniqueValues" dxfId="1005" priority="1005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="643" priority="594"/>
+    <cfRule type="uniqueValues" dxfId="1004" priority="1004"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="642" priority="593"/>
+    <cfRule type="uniqueValues" dxfId="1003" priority="1003"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="641" priority="592"/>
+    <cfRule type="uniqueValues" dxfId="1002" priority="1002"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="640" priority="591"/>
+    <cfRule type="uniqueValues" dxfId="1001" priority="1001"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="639" priority="590"/>
+    <cfRule type="uniqueValues" dxfId="1000" priority="1000"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="638" priority="589"/>
+    <cfRule type="uniqueValues" dxfId="999" priority="999"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="637" priority="604"/>
+    <cfRule type="uniqueValues" dxfId="998" priority="1014"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="636" priority="588"/>
+    <cfRule type="uniqueValues" dxfId="997" priority="998"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="635" priority="587"/>
+    <cfRule type="uniqueValues" dxfId="996" priority="997"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="634" priority="586"/>
+    <cfRule type="uniqueValues" dxfId="995" priority="996"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="633" priority="585"/>
+    <cfRule type="uniqueValues" dxfId="994" priority="995"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="632" priority="584"/>
+    <cfRule type="uniqueValues" dxfId="993" priority="994"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="631" priority="583"/>
+    <cfRule type="uniqueValues" dxfId="992" priority="993"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="630" priority="582"/>
+    <cfRule type="uniqueValues" dxfId="991" priority="992"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="629" priority="581"/>
+    <cfRule type="uniqueValues" dxfId="990" priority="991"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="628" priority="580"/>
+    <cfRule type="uniqueValues" dxfId="989" priority="990"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="627" priority="579"/>
+    <cfRule type="uniqueValues" dxfId="988" priority="989"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="626" priority="578"/>
+    <cfRule type="uniqueValues" dxfId="987" priority="988"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="625" priority="577"/>
+    <cfRule type="uniqueValues" dxfId="986" priority="987"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="624" priority="576"/>
+    <cfRule type="uniqueValues" dxfId="985" priority="986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="623" priority="575"/>
+    <cfRule type="uniqueValues" dxfId="984" priority="985"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="622" priority="574"/>
+    <cfRule type="uniqueValues" dxfId="983" priority="984"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="621" priority="573"/>
+    <cfRule type="uniqueValues" dxfId="982" priority="983"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="620" priority="572"/>
+    <cfRule type="uniqueValues" dxfId="981" priority="982"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="619" priority="571"/>
+    <cfRule type="uniqueValues" dxfId="980" priority="981"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="618" priority="570"/>
+    <cfRule type="uniqueValues" dxfId="979" priority="980"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="617" priority="569"/>
+    <cfRule type="uniqueValues" dxfId="978" priority="979"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="616" priority="568"/>
+    <cfRule type="uniqueValues" dxfId="977" priority="978"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="615" priority="567"/>
+    <cfRule type="uniqueValues" dxfId="976" priority="977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="614" priority="566"/>
+    <cfRule type="uniqueValues" dxfId="975" priority="976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="613" priority="565"/>
+    <cfRule type="uniqueValues" dxfId="974" priority="975"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="612" priority="564"/>
+    <cfRule type="uniqueValues" dxfId="973" priority="974"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="611" priority="563"/>
+    <cfRule type="uniqueValues" dxfId="972" priority="973"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="610" priority="562"/>
+    <cfRule type="uniqueValues" dxfId="971" priority="972"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="609" priority="561"/>
+    <cfRule type="uniqueValues" dxfId="970" priority="971"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="608" priority="560"/>
+    <cfRule type="uniqueValues" dxfId="969" priority="970"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="607" priority="559"/>
+    <cfRule type="uniqueValues" dxfId="968" priority="969"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="606" priority="558"/>
+    <cfRule type="uniqueValues" dxfId="967" priority="968"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="605" priority="557"/>
+    <cfRule type="uniqueValues" dxfId="966" priority="967"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="604" priority="556"/>
+    <cfRule type="uniqueValues" dxfId="965" priority="966"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="603" priority="555"/>
+    <cfRule type="uniqueValues" dxfId="964" priority="965"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="602" priority="554"/>
+    <cfRule type="uniqueValues" dxfId="963" priority="964"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="601" priority="553"/>
+    <cfRule type="uniqueValues" dxfId="962" priority="963"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="600" priority="552"/>
+    <cfRule type="uniqueValues" dxfId="961" priority="962"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="599" priority="551"/>
+    <cfRule type="uniqueValues" dxfId="960" priority="961"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="598" priority="550"/>
+    <cfRule type="uniqueValues" dxfId="959" priority="960"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="597" priority="549"/>
+    <cfRule type="uniqueValues" dxfId="958" priority="959"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="596" priority="548"/>
+    <cfRule type="uniqueValues" dxfId="957" priority="958"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="595" priority="547"/>
+    <cfRule type="uniqueValues" dxfId="956" priority="957"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="594" priority="546"/>
+    <cfRule type="uniqueValues" dxfId="955" priority="956"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="593" priority="545"/>
+    <cfRule type="uniqueValues" dxfId="954" priority="955"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="592" priority="544"/>
+    <cfRule type="uniqueValues" dxfId="953" priority="954"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="591" priority="543"/>
+    <cfRule type="uniqueValues" dxfId="952" priority="953"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="590" priority="542"/>
+    <cfRule type="uniqueValues" dxfId="951" priority="952"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="589" priority="541"/>
+    <cfRule type="uniqueValues" dxfId="950" priority="951"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="588" priority="540"/>
+    <cfRule type="uniqueValues" dxfId="949" priority="950"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="587" priority="539"/>
+    <cfRule type="uniqueValues" dxfId="948" priority="949"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="586" priority="538"/>
+    <cfRule type="uniqueValues" dxfId="947" priority="948"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="585" priority="537"/>
+    <cfRule type="uniqueValues" dxfId="946" priority="947"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="584" priority="536"/>
+    <cfRule type="uniqueValues" dxfId="945" priority="946"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="583" priority="535"/>
+    <cfRule type="uniqueValues" dxfId="944" priority="945"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="582" priority="534"/>
+    <cfRule type="uniqueValues" dxfId="943" priority="944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="581" priority="533"/>
+    <cfRule type="uniqueValues" dxfId="942" priority="943"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="580" priority="532"/>
+    <cfRule type="uniqueValues" dxfId="941" priority="942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="579" priority="531"/>
+    <cfRule type="uniqueValues" dxfId="940" priority="941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="578" priority="530"/>
+    <cfRule type="uniqueValues" dxfId="939" priority="940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="577" priority="529"/>
+    <cfRule type="uniqueValues" dxfId="938" priority="939"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="576" priority="528"/>
+    <cfRule type="uniqueValues" dxfId="937" priority="938"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="575" priority="527"/>
+    <cfRule type="uniqueValues" dxfId="936" priority="937"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="574" priority="526"/>
+    <cfRule type="uniqueValues" dxfId="935" priority="936"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="573" priority="525"/>
+    <cfRule type="uniqueValues" dxfId="934" priority="935"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="572" priority="524"/>
+    <cfRule type="uniqueValues" dxfId="933" priority="934"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="571" priority="523"/>
+    <cfRule type="uniqueValues" dxfId="932" priority="933"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="570" priority="522"/>
+    <cfRule type="uniqueValues" dxfId="931" priority="932"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="569" priority="521"/>
+    <cfRule type="uniqueValues" dxfId="930" priority="931"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="568" priority="520"/>
+    <cfRule type="uniqueValues" dxfId="929" priority="930"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="567" priority="519"/>
+    <cfRule type="uniqueValues" dxfId="928" priority="929"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="566" priority="518"/>
+    <cfRule type="uniqueValues" dxfId="927" priority="928"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="565" priority="517"/>
+    <cfRule type="uniqueValues" dxfId="926" priority="927"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="564" priority="516"/>
+    <cfRule type="uniqueValues" dxfId="925" priority="926"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="563" priority="515"/>
+    <cfRule type="uniqueValues" dxfId="924" priority="925"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="562" priority="514"/>
+    <cfRule type="uniqueValues" dxfId="923" priority="924"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="561" priority="513"/>
+    <cfRule type="uniqueValues" dxfId="922" priority="923"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="560" priority="512"/>
+    <cfRule type="uniqueValues" dxfId="921" priority="922"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="559" priority="511"/>
+    <cfRule type="uniqueValues" dxfId="920" priority="921"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="558" priority="510"/>
+    <cfRule type="uniqueValues" dxfId="919" priority="920"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="557" priority="509"/>
+    <cfRule type="uniqueValues" dxfId="918" priority="919"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="556" priority="508"/>
+    <cfRule type="uniqueValues" dxfId="917" priority="918"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="555" priority="507"/>
+    <cfRule type="uniqueValues" dxfId="916" priority="917"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="554" priority="506"/>
+    <cfRule type="uniqueValues" dxfId="915" priority="916"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="553" priority="505"/>
+    <cfRule type="uniqueValues" dxfId="914" priority="915"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="552" priority="504"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="535" priority="502"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="534" priority="501"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="533" priority="500"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="532" priority="499"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="531" priority="498"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="530" priority="497"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="529" priority="496"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="528" priority="495"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="527" priority="494"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="526" priority="493"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="525" priority="492"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="524" priority="491"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="523" priority="490"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="522" priority="489"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="521" priority="488"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="520" priority="503"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="519" priority="487"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="518" priority="486"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="517" priority="485"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="516" priority="484"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="515" priority="483"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="514" priority="482"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="513" priority="481"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="512" priority="480"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="511" priority="479"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="510" priority="478"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="509" priority="477"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="508" priority="476"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="507" priority="475"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="506" priority="474"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="505" priority="473"/>
+    <cfRule type="uniqueValues" dxfId="913" priority="914"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="912" priority="912"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="911" priority="911"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="910" priority="910"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="909" priority="909"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="908" priority="908"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="907" priority="907"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="906" priority="906"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="905" priority="905"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="904" priority="904"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="903" priority="903"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="902" priority="902"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="901" priority="901"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="900" priority="900"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="899" priority="899"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="898" priority="898"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="897" priority="913"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="896" priority="897"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="895" priority="896"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="894" priority="895"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="893" priority="894"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="892" priority="893"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="891" priority="892"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="890" priority="891"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="889" priority="890"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="888" priority="889"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="887" priority="888"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="886" priority="887"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="885" priority="886"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="884" priority="885"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="883" priority="884"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="882" priority="883"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="504" priority="472"/>
+    <cfRule type="uniqueValues" dxfId="881" priority="882"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="503" priority="471"/>
+    <cfRule type="uniqueValues" dxfId="880" priority="881"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="502" priority="470"/>
+    <cfRule type="uniqueValues" dxfId="879" priority="880"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="501" priority="469"/>
+    <cfRule type="uniqueValues" dxfId="878" priority="879"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="500" priority="468"/>
+    <cfRule type="uniqueValues" dxfId="877" priority="878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="499" priority="467"/>
+    <cfRule type="uniqueValues" dxfId="876" priority="877"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="498" priority="466"/>
+    <cfRule type="uniqueValues" dxfId="875" priority="876"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="497" priority="465"/>
+    <cfRule type="uniqueValues" dxfId="874" priority="875"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="496" priority="464"/>
+    <cfRule type="uniqueValues" dxfId="873" priority="874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="495" priority="463"/>
+    <cfRule type="uniqueValues" dxfId="872" priority="873"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="494" priority="462"/>
+    <cfRule type="uniqueValues" dxfId="871" priority="872"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="493" priority="461"/>
+    <cfRule type="uniqueValues" dxfId="870" priority="871"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="492" priority="460"/>
+    <cfRule type="uniqueValues" dxfId="869" priority="870"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="491" priority="459"/>
+    <cfRule type="uniqueValues" dxfId="868" priority="869"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="490" priority="458"/>
+    <cfRule type="uniqueValues" dxfId="867" priority="868"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="489" priority="457"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="488" priority="456"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="487" priority="455"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="486" priority="454"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="485" priority="453"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="484" priority="452"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="483" priority="451"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="482" priority="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="481" priority="449"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="480" priority="448"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="479" priority="447"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="478" priority="446"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="477" priority="445"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="476" priority="444"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="475" priority="443"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="474" priority="442"/>
+    <cfRule type="uniqueValues" dxfId="866" priority="867"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="865" priority="866"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="864" priority="865"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="863" priority="864"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="862" priority="863"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="861" priority="862"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="860" priority="861"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="859" priority="860"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="858" priority="859"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="857" priority="858"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="856" priority="857"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="855" priority="856"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="854" priority="855"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="853" priority="854"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="852" priority="853"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="851" priority="852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="473" priority="441"/>
+    <cfRule type="uniqueValues" dxfId="850" priority="851"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="472" priority="440"/>
+    <cfRule type="uniqueValues" dxfId="849" priority="850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="471" priority="439"/>
+    <cfRule type="uniqueValues" dxfId="848" priority="849"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="470" priority="438"/>
+    <cfRule type="uniqueValues" dxfId="847" priority="848"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="469" priority="437"/>
+    <cfRule type="uniqueValues" dxfId="846" priority="847"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="468" priority="436"/>
+    <cfRule type="uniqueValues" dxfId="845" priority="846"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="467" priority="435"/>
+    <cfRule type="uniqueValues" dxfId="844" priority="845"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="466" priority="434"/>
+    <cfRule type="uniqueValues" dxfId="843" priority="844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="465" priority="433"/>
+    <cfRule type="uniqueValues" dxfId="842" priority="843"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="464" priority="432"/>
+    <cfRule type="uniqueValues" dxfId="841" priority="842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="463" priority="431"/>
+    <cfRule type="uniqueValues" dxfId="840" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="462" priority="430"/>
+    <cfRule type="uniqueValues" dxfId="839" priority="840"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="461" priority="429"/>
+    <cfRule type="uniqueValues" dxfId="838" priority="839"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="460" priority="428"/>
+    <cfRule type="uniqueValues" dxfId="837" priority="838"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="459" priority="427"/>
+    <cfRule type="uniqueValues" dxfId="836" priority="837"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="458" priority="426"/>
+    <cfRule type="uniqueValues" dxfId="835" priority="836"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="457" priority="425"/>
+    <cfRule type="uniqueValues" dxfId="834" priority="835"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="456" priority="424"/>
+    <cfRule type="uniqueValues" dxfId="833" priority="834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="455" priority="423"/>
+    <cfRule type="uniqueValues" dxfId="832" priority="833"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="454" priority="422"/>
+    <cfRule type="uniqueValues" dxfId="831" priority="832"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="453" priority="421"/>
+    <cfRule type="uniqueValues" dxfId="830" priority="831"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="452" priority="420"/>
+    <cfRule type="uniqueValues" dxfId="829" priority="830"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="451" priority="419"/>
+    <cfRule type="uniqueValues" dxfId="828" priority="829"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="450" priority="418"/>
+    <cfRule type="uniqueValues" dxfId="827" priority="828"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="449" priority="417"/>
+    <cfRule type="uniqueValues" dxfId="826" priority="827"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="448" priority="416"/>
+    <cfRule type="uniqueValues" dxfId="825" priority="826"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="447" priority="415"/>
+    <cfRule type="uniqueValues" dxfId="824" priority="825"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="446" priority="414"/>
+    <cfRule type="uniqueValues" dxfId="823" priority="824"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="445" priority="413"/>
+    <cfRule type="uniqueValues" dxfId="822" priority="823"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="444" priority="412"/>
+    <cfRule type="uniqueValues" dxfId="821" priority="822"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="443" priority="411"/>
+    <cfRule type="uniqueValues" dxfId="820" priority="821"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="442" priority="410"/>
+    <cfRule type="uniqueValues" dxfId="819" priority="820"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="441" priority="409"/>
+    <cfRule type="uniqueValues" dxfId="818" priority="819"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="440" priority="408"/>
+    <cfRule type="uniqueValues" dxfId="817" priority="818"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="439" priority="407"/>
+    <cfRule type="uniqueValues" dxfId="816" priority="817"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="438" priority="406"/>
+    <cfRule type="uniqueValues" dxfId="815" priority="816"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="437" priority="405"/>
+    <cfRule type="uniqueValues" dxfId="814" priority="815"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="436" priority="404"/>
+    <cfRule type="uniqueValues" dxfId="813" priority="814"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="435" priority="403"/>
+    <cfRule type="uniqueValues" dxfId="812" priority="813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="434" priority="402"/>
+    <cfRule type="uniqueValues" dxfId="811" priority="812"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="433" priority="401"/>
+    <cfRule type="uniqueValues" dxfId="810" priority="811"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="432" priority="400"/>
+    <cfRule type="uniqueValues" dxfId="809" priority="810"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="431" priority="399"/>
+    <cfRule type="uniqueValues" dxfId="808" priority="809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="430" priority="398"/>
+    <cfRule type="uniqueValues" dxfId="807" priority="808"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="429" priority="397"/>
+    <cfRule type="uniqueValues" dxfId="806" priority="807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="428" priority="396"/>
+    <cfRule type="uniqueValues" dxfId="805" priority="806"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="427" priority="395"/>
+    <cfRule type="uniqueValues" dxfId="804" priority="805"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="426" priority="394"/>
+    <cfRule type="uniqueValues" dxfId="803" priority="804"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="425" priority="393"/>
+    <cfRule type="uniqueValues" dxfId="802" priority="803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="424" priority="392"/>
+    <cfRule type="uniqueValues" dxfId="801" priority="802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="423" priority="391"/>
+    <cfRule type="uniqueValues" dxfId="800" priority="801"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="422" priority="390"/>
+    <cfRule type="uniqueValues" dxfId="799" priority="800"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="421" priority="389"/>
+    <cfRule type="uniqueValues" dxfId="798" priority="799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="420" priority="388"/>
+    <cfRule type="uniqueValues" dxfId="797" priority="798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="419" priority="387"/>
+    <cfRule type="uniqueValues" dxfId="796" priority="797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="418" priority="386"/>
+    <cfRule type="uniqueValues" dxfId="795" priority="796"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="417" priority="385"/>
+    <cfRule type="uniqueValues" dxfId="794" priority="795"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="416" priority="384"/>
+    <cfRule type="uniqueValues" dxfId="793" priority="794"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="415" priority="383"/>
+    <cfRule type="uniqueValues" dxfId="792" priority="793"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="414" priority="382"/>
+    <cfRule type="uniqueValues" dxfId="791" priority="792"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="413" priority="381"/>
+    <cfRule type="uniqueValues" dxfId="790" priority="791"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="412" priority="380"/>
+    <cfRule type="uniqueValues" dxfId="789" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="411" priority="379"/>
+    <cfRule type="uniqueValues" dxfId="788" priority="789"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="410" priority="378"/>
+    <cfRule type="uniqueValues" dxfId="787" priority="788"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="409" priority="377"/>
+    <cfRule type="uniqueValues" dxfId="786" priority="787"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="408" priority="376"/>
+    <cfRule type="uniqueValues" dxfId="785" priority="786"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="407" priority="375"/>
+    <cfRule type="uniqueValues" dxfId="784" priority="785"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="406" priority="374"/>
+    <cfRule type="uniqueValues" dxfId="783" priority="784"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="405" priority="373"/>
+    <cfRule type="uniqueValues" dxfId="782" priority="783"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="404" priority="372"/>
+    <cfRule type="uniqueValues" dxfId="781" priority="782"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="403" priority="371"/>
+    <cfRule type="uniqueValues" dxfId="780" priority="781"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="402" priority="370"/>
+    <cfRule type="uniqueValues" dxfId="779" priority="780"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="401" priority="369"/>
+    <cfRule type="uniqueValues" dxfId="778" priority="779"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="400" priority="368"/>
+    <cfRule type="uniqueValues" dxfId="777" priority="778"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="399" priority="367"/>
+    <cfRule type="uniqueValues" dxfId="776" priority="777"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="398" priority="366"/>
+    <cfRule type="uniqueValues" dxfId="775" priority="776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="397" priority="365"/>
+    <cfRule type="uniqueValues" dxfId="774" priority="775"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="396" priority="364"/>
+    <cfRule type="uniqueValues" dxfId="773" priority="774"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="395" priority="363"/>
+    <cfRule type="uniqueValues" dxfId="772" priority="773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="394" priority="362"/>
+    <cfRule type="uniqueValues" dxfId="771" priority="772"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="393" priority="361"/>
+    <cfRule type="uniqueValues" dxfId="770" priority="771"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="392" priority="360"/>
+    <cfRule type="uniqueValues" dxfId="769" priority="770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="391" priority="359"/>
+    <cfRule type="uniqueValues" dxfId="768" priority="769"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="390" priority="358"/>
+    <cfRule type="uniqueValues" dxfId="767" priority="768"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="389" priority="357"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="388" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="387" priority="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="386" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="385" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="384" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="383" priority="351"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="382" priority="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="381" priority="349"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="380" priority="348"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="379" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="378" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="377" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="376" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="375" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="374" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="340" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="339" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="338" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="337" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="336" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="335" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="334" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="333" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="332" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="331" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="330" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="329" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="328" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="327" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="326" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="325" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="766" priority="767"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="765" priority="766"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="764" priority="765"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="763" priority="764"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="762" priority="763"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="761" priority="762"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="760" priority="761"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="759" priority="760"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="758" priority="759"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="757" priority="758"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="756" priority="757"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="755" priority="756"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="754" priority="755"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="753" priority="754"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="752" priority="753"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="751" priority="752"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="750" priority="750"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="749" priority="749"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="748" priority="748"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="747" priority="747"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="746" priority="746"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="745" priority="745"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="744" priority="744"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="743" priority="743"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="742" priority="742"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="741" priority="741"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="740" priority="740"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="739" priority="739"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="738" priority="738"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="737" priority="737"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="736" priority="736"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="735" priority="751"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="734" priority="735"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="733" priority="734"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="732" priority="733"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="731" priority="732"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="730" priority="731"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="729" priority="730"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="728" priority="729"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="727" priority="728"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="726" priority="727"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="725" priority="726"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="724" priority="725"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="723" priority="724"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="722" priority="723"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="721" priority="722"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="720" priority="721"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="uniqueValues" dxfId="719" priority="720"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="718" priority="719"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="717" priority="718"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="716" priority="717"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="715" priority="716"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="714" priority="715"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="713" priority="714"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="712" priority="713"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="711" priority="712"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="710" priority="711"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="709" priority="710"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="708" priority="709"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="707" priority="708"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="706" priority="707"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="705" priority="706"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="704" priority="705"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="703" priority="703"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="702" priority="702"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="701" priority="701"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="700" priority="700"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="699" priority="699"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="698" priority="698"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="697" priority="697"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="696" priority="696"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="695" priority="695"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="694" priority="694"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="693" priority="693"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="692" priority="692"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="691" priority="691"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="690" priority="690"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="689" priority="689"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="688" priority="704"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="687" priority="688"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="686" priority="687"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="685" priority="686"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="684" priority="685"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="683" priority="684"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="682" priority="683"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="681" priority="682"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="680" priority="681"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="679" priority="680"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="678" priority="679"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="677" priority="678"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="676" priority="677"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="675" priority="676"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="674" priority="675"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="673" priority="674"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="672" priority="673"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="671" priority="672"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="670" priority="671"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="669" priority="670"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="668" priority="669"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="667" priority="668"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="666" priority="667"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="665" priority="666"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="664" priority="665"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="663" priority="664"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="662" priority="663"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="661" priority="662"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="660" priority="661"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="659" priority="660"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="658" priority="659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="657" priority="658"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="656" priority="657"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="655" priority="656"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="654" priority="655"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="653" priority="654"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="652" priority="653"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="651" priority="652"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="650" priority="651"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="649" priority="650"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="648" priority="649"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="647" priority="648"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="646" priority="647"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="645" priority="646"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="644" priority="645"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="643" priority="644"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="642" priority="643"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="641" priority="642"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="640" priority="641"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="639" priority="640"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="638" priority="639"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="637" priority="638"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="636" priority="637"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="635" priority="636"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="634" priority="635"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="633" priority="634"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="632" priority="633"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="631" priority="631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="630" priority="630"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="629" priority="629"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="628" priority="628"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="627" priority="627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="626" priority="626"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="625" priority="625"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="624" priority="624"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="623" priority="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="622" priority="622"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="621" priority="621"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="620" priority="620"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="619" priority="619"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="618" priority="618"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="617" priority="617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="616" priority="632"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="615" priority="616"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="614" priority="615"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="613" priority="614"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="612" priority="613"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="611" priority="612"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="610" priority="611"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="609" priority="610"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="608" priority="609"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="607" priority="608"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="606" priority="607"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="605" priority="606"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="604" priority="605"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="603" priority="604"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="602" priority="603"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="601" priority="602"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="600" priority="601"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="599" priority="599"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="598" priority="598"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="597" priority="597"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="596" priority="596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="595" priority="595"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="594" priority="594"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="593" priority="593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="592" priority="592"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="591" priority="591"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="590" priority="590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="589" priority="589"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="588" priority="588"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="587" priority="587"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="586" priority="586"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="585" priority="585"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="584" priority="600"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="583" priority="584"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="582" priority="583"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="581" priority="582"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="580" priority="581"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="579" priority="580"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="578" priority="579"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="577" priority="578"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="576" priority="577"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="575" priority="576"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="574" priority="575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="573" priority="574"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="572" priority="573"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="571" priority="572"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="570" priority="571"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="569" priority="570"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="568" priority="569"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="567" priority="568"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="566" priority="567"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="565" priority="566"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="564" priority="565"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="563" priority="564"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="562" priority="563"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="561" priority="562"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="560" priority="561"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="559" priority="560"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="558" priority="559"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="557" priority="558"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="556" priority="557"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="555" priority="556"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="554" priority="555"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="553" priority="554"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="552" priority="553"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="551" priority="552"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="550" priority="551"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="549" priority="550"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="548" priority="549"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="547" priority="548"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="546" priority="547"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="545" priority="546"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="544" priority="545"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="543" priority="544"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="542" priority="543"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="541" priority="542"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="540" priority="541"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="539" priority="540"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="538" priority="539"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="537" priority="538"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="536" priority="537"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="535" priority="536"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="534" priority="535"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="533" priority="534"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="532" priority="533"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="531" priority="532"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="530" priority="531"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="529" priority="530"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="528" priority="529"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="527" priority="528"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="526" priority="527"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="525" priority="526"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="524" priority="525"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="523" priority="524"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="522" priority="523"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="521" priority="522"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="520" priority="521"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="519" priority="520"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="518" priority="519"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="517" priority="517"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="516" priority="516"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="515" priority="515"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="514" priority="514"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="513" priority="513"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="512" priority="512"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="511" priority="511"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="510" priority="510"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="509" priority="509"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="508" priority="508"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="507" priority="507"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="506" priority="506"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="505" priority="505"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="504" priority="504"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="503" priority="503"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="502" priority="518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="501" priority="502"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="500" priority="501"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="499" priority="500"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="498" priority="499"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="497" priority="498"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="496" priority="497"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="495" priority="496"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="494" priority="495"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="493" priority="494"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="492" priority="493"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="491" priority="492"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="490" priority="491"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="489" priority="490"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="488" priority="489"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="487" priority="488"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="486" priority="487"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="485" priority="486"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="484" priority="485"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="483" priority="484"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="482" priority="483"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="481" priority="482"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="480" priority="481"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="479" priority="480"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="478" priority="479"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="477" priority="478"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="476" priority="477"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="475" priority="476"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="474" priority="475"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="473" priority="474"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="472" priority="473"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="471" priority="472"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="470" priority="471"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="469" priority="470"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="468" priority="469"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="467" priority="468"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="466" priority="467"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="465" priority="466"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="464" priority="465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="463" priority="464"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="462" priority="463"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="461" priority="462"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="460" priority="461"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="459" priority="460"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="458" priority="459"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="457" priority="458"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="456" priority="457"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="455" priority="456"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="454" priority="455"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="453" priority="454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="452" priority="453"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="451" priority="452"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="450" priority="451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="449" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="448" priority="449"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="447" priority="448"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="446" priority="447"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="445" priority="446"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="444" priority="445"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="443" priority="444"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="442" priority="443"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="441" priority="441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="440" priority="440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="439" priority="439"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="438" priority="438"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="437" priority="437"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="436" priority="436"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="435" priority="435"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="434" priority="434"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="433" priority="433"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="432" priority="432"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="431" priority="431"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="430" priority="430"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="429" priority="429"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="428" priority="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="427" priority="427"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="426" priority="442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="425" priority="426"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="424" priority="425"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="423" priority="424"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="422" priority="423"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="421" priority="422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="420" priority="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="419" priority="420"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="418" priority="419"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="417" priority="418"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="416" priority="417"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="415" priority="416"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="414" priority="415"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="413" priority="414"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="412" priority="413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="411" priority="412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="uniqueValues" dxfId="410" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="409" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="408" priority="409"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="407" priority="408"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="406" priority="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="405" priority="406"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="404" priority="405"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="403" priority="404"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="402" priority="403"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="401" priority="402"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="400" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="399" priority="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="398" priority="399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="397" priority="398"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="396" priority="397"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="395" priority="396"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="394" priority="394"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="393" priority="393"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="392" priority="392"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="391" priority="391"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="390" priority="390"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="389" priority="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="388" priority="388"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="387" priority="387"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="386" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="385" priority="385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="384" priority="384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="383" priority="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="382" priority="382"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="381" priority="381"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="380" priority="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="379" priority="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="378" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="377" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="376" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="375" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="374" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="373" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="372" priority="373"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="371" priority="372"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="370" priority="371"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="369" priority="370"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="368" priority="369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="367" priority="368"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="366" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="365" priority="366"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="364" priority="365"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="363" priority="364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="362" priority="363"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="361" priority="362"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="360" priority="361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="359" priority="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="358" priority="359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="357" priority="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="356" priority="357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="355" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="354" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="353" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="352" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="351" priority="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="350" priority="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="349" priority="350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="348" priority="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="347" priority="348"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="346" priority="347"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="345" priority="346"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="344" priority="345"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="343" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="342" priority="343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="341" priority="342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="340" priority="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="339" priority="340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="338" priority="339"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="337" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="336" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="335" priority="336"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="334" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="333" priority="334"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="332" priority="333"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="331" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="330" priority="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="329" priority="330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="328" priority="329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="327" priority="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="326" priority="327"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="325" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="324" priority="325"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="323" priority="324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="322" priority="323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="321" priority="322"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="320" priority="321"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="319" priority="320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="318" priority="319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="317" priority="318"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="316" priority="317"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="315" priority="316"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="314" priority="315"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="313" priority="314"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="312" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="311" priority="312"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="310" priority="311"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="uniqueValues" dxfId="309" priority="310"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="308" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="307" priority="308"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="306" priority="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="305" priority="306"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="304" priority="305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="303" priority="304"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="302" priority="303"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="301" priority="302"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="300" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="299" priority="300"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="298" priority="299"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="297" priority="298"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="312" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="311" priority="311"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="310" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="309" priority="309"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="308" priority="308"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="307" priority="307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="306" priority="306"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="305" priority="305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="304" priority="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="303" priority="303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="302" priority="302"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="301" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="300" priority="300"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="299" priority="299"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="298" priority="298"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="297" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="296" priority="297"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="295" priority="296"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="294" priority="295"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="293" priority="293"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="292" priority="292"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="291" priority="291"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="290" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="289" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="288" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="287" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="286" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="285" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="284" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="283" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="282" priority="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="281" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="280" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="279" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="278" priority="294"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="293" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="292" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="291" priority="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="290" priority="291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="289" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="288" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="287" priority="288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="286" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="285" priority="286"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="284" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="283" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="282" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="281" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="280" priority="281"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="279" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="278" priority="279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="277" priority="278"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="276" priority="277"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="275" priority="276"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="274" priority="275"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="273" priority="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="272" priority="273"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="271" priority="272"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="270" priority="271"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="269" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="268" priority="269"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="267" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="266" priority="267"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="265" priority="266"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="264" priority="265"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="263" priority="264"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="262" priority="263"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="261" priority="262"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="260" priority="261"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="259" priority="260"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="258" priority="259"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="257" priority="258"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="256" priority="257"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="255" priority="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="254" priority="255"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="253" priority="254"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="252" priority="253"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="251" priority="252"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="250" priority="251"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="249" priority="250"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="248" priority="249"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="247" priority="248"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="246" priority="247"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="245" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="244" priority="245"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="243" priority="244"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="242" priority="243"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="241" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="240" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="239" priority="240"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="238" priority="239"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="237" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="236" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="235" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="234" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="233" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="232" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="231" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="230" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="229" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="228" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="227" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="226" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="225" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="224" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="223" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="222" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="221" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="220" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="219" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="218" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="217" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="216" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="215" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="214" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="213" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="212" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="211" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="210" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="209" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="208" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="207" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="206" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="236" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="235" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="234" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="233" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="232" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="231" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="230" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="229" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="228" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="227" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="226" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="225" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="224" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="223" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="222" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="221" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="220" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="219" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="218" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="217" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="216" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="215" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="214" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="213" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="212" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="211" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="210" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="209" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="208" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="207" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="uniqueValues" dxfId="206" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="uniqueValues" dxfId="205" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="204" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="203" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="202" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="201" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="200" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="199" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="198" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="197" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="196" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="195" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="194" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="193" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="192" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="191" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="190" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="189" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="188" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="187" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="186" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="185" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="184" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="183" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="182" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="181" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="180" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="179" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="178" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="177" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="176" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="175" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="174" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="173" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="172" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="171" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="170" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="169" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="168" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="167" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="166" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="165" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="164" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="163" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="162" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="161" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="160" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="159" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="158" priority="159"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="157" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="156" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="155" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="154" priority="155"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="153" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="152" priority="153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="151" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="150" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="149" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="148" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="147" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="146" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="145" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="144" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="143" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="142" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="141" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="140" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="139" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="138" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="137" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="136" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="135" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="134" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="133" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="132" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="131" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="130" priority="131"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="129" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="128" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="127" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="126" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="125" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="124" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="123" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="122" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="121" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="120" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="119" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="118" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="117" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="116" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="115" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="114" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="113" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="112" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="111" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="110" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="109" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="108" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="107" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="106" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="105" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="104" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="103" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="102" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="101" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="100" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="99" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="98" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="97" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="96" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="95" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="94" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="93" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="92" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="91" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="90" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="89" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="88" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="87" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="86" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="84" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="83" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="82" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="81" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="80" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="79" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="78" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="77" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="76" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="75" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="74" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="73" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="72" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="71" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="70" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="69" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="68" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="67" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="66" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="64" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="63" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="62" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="61" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="59" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="58" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="57" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="56" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="53" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="51" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="44" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="43" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="42" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="31" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="30" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="29" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="28" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="27" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="26" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="16" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4B444-53D7-42CE-B00E-11C9F98AA6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1882A930-732D-4F9B-80C9-2395CE5DA48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -237,9 +237,6 @@
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -12113,8 +12110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12160,7 +12157,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -12180,7 +12177,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -12200,7 +12197,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -12220,7 +12217,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -12240,7 +12237,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -12260,7 +12257,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -12280,7 +12277,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -12300,7 +12297,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -12320,7 +12317,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -12340,7 +12337,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -12360,7 +12357,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -12380,7 +12377,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -12400,7 +12397,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -12420,7 +12417,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -12440,7 +12437,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -12460,7 +12457,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -12480,7 +12477,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -12500,7 +12497,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -12520,7 +12517,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -12540,7 +12537,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -12560,7 +12557,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -12600,7 +12597,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -12620,7 +12617,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -12640,7 +12637,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -12660,7 +12657,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -12680,7 +12677,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -12700,7 +12697,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -13079,52 +13076,52 @@
   <conditionalFormatting sqref="E3:E6">
     <cfRule type="uniqueValues" dxfId="1014" priority="1015"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1013" priority="1013"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1012" priority="1012"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1011" priority="1011"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1010" priority="1010"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1009" priority="1009"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1008" priority="1008"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1007" priority="1007"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1006" priority="1006"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1005" priority="1005"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1004" priority="1004"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1003" priority="1003"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1002" priority="1002"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1001" priority="1001"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="1000" priority="1000"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="999" priority="999"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="998" priority="1014"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
@@ -13475,52 +13472,52 @@
   <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="882" priority="883"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="881" priority="882"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="880" priority="881"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="879" priority="880"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="878" priority="879"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="877" priority="878"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="876" priority="877"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="875" priority="876"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="874" priority="875"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="873" priority="874"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="872" priority="873"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="871" priority="872"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="870" priority="871"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="869" priority="870"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="868" priority="869"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="867" priority="868"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="866" priority="867"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
@@ -14417,478 +14414,478 @@
   <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="568" priority="569"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="567" priority="568"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="566" priority="567"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="565" priority="566"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="564" priority="565"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="563" priority="564"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="562" priority="563"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="561" priority="562"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="560" priority="561"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="559" priority="560"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="558" priority="559"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="557" priority="558"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="556" priority="557"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="555" priority="556"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="554" priority="555"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="553" priority="554"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="552" priority="553"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="551" priority="552"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="550" priority="551"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="549" priority="550"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="548" priority="549"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="547" priority="548"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="546" priority="547"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="545" priority="546"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="544" priority="545"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="543" priority="544"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="542" priority="543"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="541" priority="542"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="540" priority="541"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="539" priority="540"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="538" priority="539"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="537" priority="538"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="536" priority="537"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="535" priority="536"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="534" priority="535"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="533" priority="534"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="532" priority="533"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="531" priority="532"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="530" priority="531"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="529" priority="530"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="528" priority="529"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="527" priority="528"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="526" priority="527"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="525" priority="526"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="524" priority="525"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="523" priority="524"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="522" priority="523"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="521" priority="522"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="520" priority="521"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="519" priority="520"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="518" priority="519"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="517" priority="517"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="516" priority="516"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="515" priority="515"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="514" priority="514"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="513" priority="513"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="512" priority="512"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="511" priority="511"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="510" priority="510"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="509" priority="509"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="508" priority="508"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="507" priority="507"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="506" priority="506"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="505" priority="505"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="504" priority="504"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="503" priority="503"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="502" priority="518"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="501" priority="502"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="500" priority="501"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="499" priority="500"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="498" priority="499"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="497" priority="498"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="496" priority="497"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="495" priority="496"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="494" priority="495"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="493" priority="494"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="492" priority="493"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="491" priority="492"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="490" priority="491"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="489" priority="490"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="488" priority="489"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="487" priority="488"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="486" priority="487"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="485" priority="486"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="484" priority="485"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="483" priority="484"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="482" priority="483"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="481" priority="482"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="480" priority="481"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="479" priority="480"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="478" priority="479"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="477" priority="478"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="476" priority="477"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="475" priority="476"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="474" priority="475"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="473" priority="474"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="472" priority="473"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="471" priority="472"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="470" priority="471"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="469" priority="470"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="468" priority="469"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="467" priority="468"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="466" priority="467"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="465" priority="466"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="464" priority="465"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="463" priority="464"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="462" priority="463"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="461" priority="462"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="460" priority="461"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="459" priority="460"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="458" priority="459"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="457" priority="458"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="456" priority="457"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="455" priority="456"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="454" priority="455"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="453" priority="454"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="452" priority="453"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="451" priority="452"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="450" priority="451"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="449" priority="450"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="448" priority="449"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="447" priority="448"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="446" priority="447"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="445" priority="446"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="444" priority="445"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="443" priority="444"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="442" priority="443"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="441" priority="441"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="440" priority="440"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="439" priority="439"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="438" priority="438"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="437" priority="437"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="436" priority="436"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="435" priority="435"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="434" priority="434"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="433" priority="433"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="432" priority="432"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="431" priority="431"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="430" priority="430"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="429" priority="429"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="428" priority="428"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="427" priority="427"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="426" priority="442"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="425" priority="426"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="424" priority="425"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="423" priority="424"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="422" priority="423"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="421" priority="422"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="420" priority="421"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="419" priority="420"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="418" priority="419"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="417" priority="418"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="416" priority="417"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="415" priority="416"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="414" priority="415"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="413" priority="414"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="412" priority="413"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="411" priority="412"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="410" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E29">

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1882A930-732D-4F9B-80C9-2395CE5DA48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F70DA3-8C48-40CA-96E0-54AB08B929C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
   <si>
     <t>Functionality</t>
   </si>
@@ -238,6 +238,12 @@
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
   </si>
+  <si>
+    <t>TC25_Verify_product_comparison</t>
+  </si>
+  <si>
+    <t>Comparing two products &amp; validating product comparision page</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +355,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -374,9 +380,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -385,667 +388,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="1138">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1072">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12108,10 +11451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12156,7 +11499,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -12176,7 +11519,7 @@
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -12196,7 +11539,7 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -12216,7 +11559,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -12236,7 +11579,7 @@
       <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -12256,7 +11599,7 @@
       <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -12276,7 +11619,7 @@
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -12296,7 +11639,7 @@
       <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -12316,7 +11659,7 @@
       <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -12336,7 +11679,7 @@
       <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -12356,54 +11699,54 @@
       <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -12411,19 +11754,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -12431,19 +11774,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -12451,12 +11794,12 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -12471,12 +11814,12 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -12491,12 +11834,12 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -12511,12 +11854,12 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -12530,13 +11873,13 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -12551,15 +11894,15 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12570,13 +11913,13 @@
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -12584,19 +11927,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -12611,12 +11954,12 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -12631,12 +11974,12 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -12651,3471 +11994,3293 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6" ht="45">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="1137" priority="1276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="1136" priority="1157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="uniqueValues" dxfId="1135" priority="1156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="1134" priority="1153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="1133" priority="1152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="1132" priority="1151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
-    <cfRule type="uniqueValues" dxfId="1131" priority="1150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1130" priority="1139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1129" priority="1138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1128" priority="1137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1127" priority="1136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1126" priority="1135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1125" priority="1134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1124" priority="1133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1123" priority="1132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1122" priority="1131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1121" priority="1130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="1120" priority="1129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="1119" priority="1128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="1118" priority="1127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="1117" priority="1126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="1116" priority="1125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1115" priority="1124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1114" priority="1123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1113" priority="1122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1112" priority="1121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1111" priority="1120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1110" priority="1119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1109" priority="1118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1108" priority="1117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1107" priority="1116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1106" priority="1115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1105" priority="1114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1104" priority="1113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1103" priority="1112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1102" priority="1111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="1101" priority="1110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1100" priority="1099"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1099" priority="1098"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1098" priority="1097"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1097" priority="1096"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1096" priority="1095"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1095" priority="1094"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1094" priority="1093"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1093" priority="1092"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1092" priority="1091"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1091" priority="1090"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1090" priority="1089"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1089" priority="1088"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1088" priority="1087"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1087" priority="1086"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1086" priority="1085"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1085" priority="1084"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1084" priority="1083"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1083" priority="1082"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1082" priority="1081"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1081" priority="1080"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1080" priority="1079"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1079" priority="1078"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1078" priority="1077"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1077" priority="1076"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1076" priority="1075"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1075" priority="1074"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1074" priority="1073"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1073" priority="1072"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1072" priority="1071"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1071" priority="1070"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1070" priority="1069"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1069" priority="1068"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1068" priority="1067"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1067" priority="1066"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1066" priority="1065"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1065" priority="1064"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1064" priority="1063"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1063" priority="1062"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1062" priority="1061"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1061" priority="1060"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1060" priority="1059"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1059" priority="1058"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1058" priority="1057"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1057" priority="1056"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="1056" priority="1055"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1055" priority="1280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1054" priority="1308"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1053" priority="1054"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1052" priority="1053"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1051" priority="1052"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1050" priority="1051"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1049" priority="1050"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1048" priority="1049"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1047" priority="1048"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1046" priority="1047"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1045" priority="1046"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1044" priority="1045"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1043" priority="1044"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1042" priority="1043"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1041" priority="1042"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1040" priority="1041"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1039" priority="1040"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1038" priority="1039"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1037" priority="1038"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1036" priority="1037"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1035" priority="1036"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1034" priority="1035"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1033" priority="1034"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1032" priority="1033"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1031" priority="1032"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1030" priority="1031"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1029" priority="1030"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1028" priority="1029"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1027" priority="1028"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1026" priority="1027"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1025" priority="1026"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1024" priority="1025"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1023" priority="1024"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1022" priority="1023"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1021" priority="1022"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1020" priority="1021"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1019" priority="1020"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1018" priority="1019"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1017" priority="1018"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1016" priority="1017"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1015" priority="1016"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="1014" priority="1015"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1013" priority="1013"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1012" priority="1012"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1011" priority="1011"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1010" priority="1010"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1009" priority="1009"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1008" priority="1008"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1007" priority="1007"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1006" priority="1006"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1005" priority="1005"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1004" priority="1004"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1003" priority="1003"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1002" priority="1002"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1001" priority="1001"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1000" priority="1000"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="999" priority="999"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="998" priority="1014"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="997" priority="998"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="996" priority="997"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="995" priority="996"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="994" priority="995"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="993" priority="994"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="992" priority="993"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="991" priority="992"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="990" priority="991"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="989" priority="990"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="988" priority="989"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="987" priority="988"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="986" priority="987"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="985" priority="986"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="984" priority="985"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="983" priority="984"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="982" priority="983"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="981" priority="982"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="980" priority="981"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="979" priority="980"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="978" priority="979"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="977" priority="978"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="976" priority="977"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="975" priority="976"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="974" priority="975"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="973" priority="974"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="972" priority="973"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="971" priority="972"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="970" priority="971"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="969" priority="970"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="968" priority="969"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="967" priority="968"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="966" priority="967"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="965" priority="966"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="964" priority="965"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="963" priority="964"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="962" priority="963"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="961" priority="962"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="960" priority="961"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="959" priority="960"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="958" priority="959"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="957" priority="958"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="956" priority="957"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="955" priority="956"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="954" priority="955"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="953" priority="954"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="952" priority="953"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="951" priority="952"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="950" priority="951"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="949" priority="950"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="uniqueValues" dxfId="948" priority="949"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="947" priority="948"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="946" priority="947"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="945" priority="946"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="944" priority="945"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="943" priority="944"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="942" priority="943"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="941" priority="942"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="940" priority="941"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="939" priority="940"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="938" priority="939"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="937" priority="938"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="936" priority="937"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="935" priority="936"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="934" priority="935"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="933" priority="934"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="932" priority="933"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="931" priority="932"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="930" priority="931"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="929" priority="930"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="928" priority="929"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="927" priority="928"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="926" priority="927"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="925" priority="926"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="924" priority="925"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="923" priority="924"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="922" priority="923"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="921" priority="922"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="920" priority="921"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="919" priority="920"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="918" priority="919"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="917" priority="918"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="916" priority="917"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="915" priority="916"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="914" priority="915"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E29">
-    <cfRule type="uniqueValues" dxfId="913" priority="914"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="912" priority="912"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="911" priority="911"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="910" priority="910"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="909" priority="909"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="908" priority="908"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="907" priority="907"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="906" priority="906"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="905" priority="905"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="904" priority="904"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="903" priority="903"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="902" priority="902"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="901" priority="901"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="900" priority="900"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="899" priority="899"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="898" priority="898"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="897" priority="913"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="896" priority="897"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="895" priority="896"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="894" priority="895"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="893" priority="894"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="892" priority="893"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="891" priority="892"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="890" priority="891"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="889" priority="890"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="888" priority="889"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="887" priority="888"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="886" priority="887"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="885" priority="886"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="884" priority="885"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="883" priority="884"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="882" priority="883"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="881" priority="882"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="880" priority="881"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="879" priority="880"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="878" priority="879"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="877" priority="878"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="876" priority="877"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="875" priority="876"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="874" priority="875"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="873" priority="874"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="872" priority="873"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="871" priority="872"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="870" priority="871"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="869" priority="870"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="868" priority="869"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="867" priority="868"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="866" priority="867"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="865" priority="866"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="864" priority="865"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="863" priority="864"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="862" priority="863"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="861" priority="862"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="860" priority="861"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="859" priority="860"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="858" priority="859"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="857" priority="858"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="856" priority="857"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="855" priority="856"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="854" priority="855"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="853" priority="854"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="852" priority="853"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="851" priority="852"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="850" priority="851"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="849" priority="850"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="848" priority="849"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="847" priority="848"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="846" priority="847"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="845" priority="846"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="844" priority="845"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="843" priority="844"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="842" priority="843"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="841" priority="842"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="840" priority="841"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="839" priority="840"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="838" priority="839"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="837" priority="838"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="uniqueValues" dxfId="836" priority="837"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="835" priority="836"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="834" priority="835"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="833" priority="834"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="832" priority="833"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="831" priority="832"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="830" priority="831"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="829" priority="830"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="828" priority="829"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="827" priority="828"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="826" priority="827"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="825" priority="826"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="824" priority="825"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="823" priority="824"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="822" priority="823"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="uniqueValues" dxfId="821" priority="822"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="820" priority="821"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="819" priority="820"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="818" priority="819"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="817" priority="818"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="816" priority="817"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="815" priority="816"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="814" priority="815"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="813" priority="814"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="812" priority="813"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="811" priority="812"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="810" priority="811"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="809" priority="810"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="808" priority="809"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="807" priority="808"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="uniqueValues" dxfId="806" priority="807"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="805" priority="806"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="804" priority="805"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="803" priority="804"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="802" priority="803"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="801" priority="802"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="800" priority="801"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="799" priority="800"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="798" priority="799"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="797" priority="798"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="796" priority="797"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="795" priority="796"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="794" priority="795"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="793" priority="794"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="792" priority="793"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="791" priority="792"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="790" priority="791"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="789" priority="790"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="788" priority="789"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="787" priority="788"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="786" priority="787"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="785" priority="786"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="784" priority="785"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="783" priority="784"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="782" priority="783"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="781" priority="782"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="780" priority="781"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="779" priority="780"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="778" priority="779"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="777" priority="778"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="776" priority="777"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="775" priority="776"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="774" priority="775"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="773" priority="774"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="772" priority="773"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="771" priority="772"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="770" priority="771"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="769" priority="770"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="768" priority="769"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="767" priority="768"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
-    <cfRule type="uniqueValues" dxfId="766" priority="767"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="765" priority="766"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="764" priority="765"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="763" priority="764"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="762" priority="763"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="761" priority="762"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="760" priority="761"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="759" priority="760"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="758" priority="759"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="757" priority="758"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="756" priority="757"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="755" priority="756"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="754" priority="755"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="753" priority="754"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="752" priority="753"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="751" priority="752"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="750" priority="750"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="749" priority="749"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="748" priority="748"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="747" priority="747"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="746" priority="746"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="745" priority="745"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="744" priority="744"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="743" priority="743"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="742" priority="742"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="741" priority="741"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="740" priority="740"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="739" priority="739"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="738" priority="738"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="737" priority="737"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="736" priority="736"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="735" priority="751"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="734" priority="735"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="733" priority="734"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="732" priority="733"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="731" priority="732"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="730" priority="731"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="729" priority="730"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="728" priority="729"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="727" priority="728"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="726" priority="727"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="725" priority="726"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="724" priority="725"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="723" priority="724"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="722" priority="723"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="721" priority="722"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="720" priority="721"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="uniqueValues" dxfId="719" priority="720"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="718" priority="719"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="717" priority="718"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="716" priority="717"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="715" priority="716"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="714" priority="715"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="713" priority="714"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="712" priority="713"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="711" priority="712"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="710" priority="711"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="709" priority="710"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="708" priority="709"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="707" priority="708"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="706" priority="707"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="705" priority="706"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="704" priority="705"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="703" priority="703"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="702" priority="702"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="701" priority="701"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="700" priority="700"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="699" priority="699"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="698" priority="698"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="697" priority="697"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="696" priority="696"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="695" priority="695"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="694" priority="694"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="693" priority="693"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="692" priority="692"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="691" priority="691"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="690" priority="690"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="689" priority="689"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="688" priority="704"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="687" priority="688"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="686" priority="687"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="685" priority="686"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="684" priority="685"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="683" priority="684"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="682" priority="683"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="F23:F29">
+    <cfRule type="uniqueValues" dxfId="1071" priority="2627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1070" priority="2490"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1069" priority="2489"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1068" priority="2488"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1067" priority="2487"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1066" priority="2486"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1065" priority="2470"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1064" priority="2469"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1063" priority="2468"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1062" priority="2467"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1061" priority="2466"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1060" priority="2450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1059" priority="2449"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1058" priority="2448"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1057" priority="2447"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1056" priority="2446"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1055" priority="2445"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1054" priority="2444"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1053" priority="2443"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1052" priority="2442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1051" priority="2441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1050" priority="2425"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1049" priority="2424"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1048" priority="2423"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1047" priority="2422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1046" priority="2421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1045" priority="2420"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1044" priority="2419"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1043" priority="2418"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1042" priority="2417"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1041" priority="2416"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1040" priority="2631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1039" priority="2659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1038" priority="2390"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1037" priority="2389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1036" priority="2388"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1035" priority="2387"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1034" priority="2386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1033" priority="2385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1032" priority="2384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1031" priority="2383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1030" priority="2382"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1029" priority="2381"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1028" priority="2364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1027" priority="2363"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1026" priority="2362"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1025" priority="2361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1024" priority="2360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1023" priority="2359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1022" priority="2358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1021" priority="2357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1020" priority="2356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1019" priority="2355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1018" priority="2354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1017" priority="2353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1016" priority="2352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1015" priority="2351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1014" priority="2350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1013" priority="2365"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1012" priority="2263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1011" priority="2262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1010" priority="2261"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1009" priority="2260"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1008" priority="2259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1007" priority="2258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1006" priority="2257"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1005" priority="2256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1004" priority="2255"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1003" priority="2254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1002" priority="2253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1001" priority="2252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="1000" priority="2251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="999" priority="2250"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="998" priority="2249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="997" priority="2264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="996" priority="2248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="995" priority="2247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="994" priority="2246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="993" priority="2245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="992" priority="2244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="991" priority="2243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="990" priority="2242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="989" priority="2241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="988" priority="2240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="987" priority="2239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="986" priority="2238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="985" priority="2237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="984" priority="2236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="983" priority="2235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="982" priority="2234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="981" priority="2233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="980" priority="2232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="979" priority="2231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="978" priority="2230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="977" priority="2229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="976" priority="2228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="975" priority="2227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="974" priority="2226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="973" priority="2225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="972" priority="2224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="971" priority="2223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="970" priority="2222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="969" priority="2221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="968" priority="2220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="967" priority="2219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="966" priority="2218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="965" priority="2117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="964" priority="2116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="963" priority="2115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="962" priority="2114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="961" priority="2113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="960" priority="2112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="959" priority="2111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="958" priority="2110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="957" priority="2109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="956" priority="2108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="955" priority="2107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="954" priority="2106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="953" priority="2105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="952" priority="2104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="951" priority="2103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="950" priority="2070"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="949" priority="2069"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="948" priority="2068"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="947" priority="2067"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="946" priority="2066"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="945" priority="2065"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="944" priority="2064"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="943" priority="2063"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="942" priority="2062"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="941" priority="2061"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="940" priority="2060"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="939" priority="2059"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="938" priority="2058"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="937" priority="2057"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="936" priority="2056"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="935" priority="2054"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="934" priority="2053"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="933" priority="2052"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="932" priority="2051"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="931" priority="2050"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="930" priority="2049"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="929" priority="2048"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="928" priority="2047"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="927" priority="2046"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="926" priority="2045"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="925" priority="2044"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="924" priority="2043"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="923" priority="2042"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="922" priority="2041"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="921" priority="2040"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="920" priority="2055"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="919" priority="2039"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="918" priority="2038"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="917" priority="2037"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="916" priority="2036"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="915" priority="2035"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="914" priority="2034"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="913" priority="2033"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="912" priority="2032"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="911" priority="2031"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="910" priority="2030"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="909" priority="2029"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="908" priority="2028"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="907" priority="2027"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="906" priority="2026"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="905" priority="2025"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="904" priority="2024"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="903" priority="1950"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="902" priority="1949"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="901" priority="1948"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="900" priority="1947"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="899" priority="1946"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="898" priority="1945"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="897" priority="1944"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="896" priority="1943"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="895" priority="1942"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="894" priority="1941"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="893" priority="1940"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="892" priority="1939"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="891" priority="1938"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="890" priority="1937"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="889" priority="1936"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="888" priority="1951"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="887" priority="1935"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="886" priority="1934"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="885" priority="1933"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="884" priority="1932"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="883" priority="1931"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="882" priority="1930"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="881" priority="1929"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="880" priority="1928"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="879" priority="1927"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="878" priority="1926"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="877" priority="1925"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="876" priority="1924"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="875" priority="1923"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="874" priority="1922"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="873" priority="1921"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="872" priority="1920"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="871" priority="1919"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="870" priority="1918"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="869" priority="1917"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="868" priority="1916"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="867" priority="1915"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="866" priority="1914"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="865" priority="1913"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="864" priority="1912"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="863" priority="1911"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="862" priority="1910"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="861" priority="1909"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="860" priority="1908"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="859" priority="1907"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="858" priority="1906"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="857" priority="1905"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="856" priority="1904"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="855" priority="1903"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="854" priority="1902"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="853" priority="1901"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="852" priority="1900"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="851" priority="1899"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="850" priority="1898"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="849" priority="1897"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="848" priority="1896"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="847" priority="1895"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="846" priority="1894"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="845" priority="1893"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="844" priority="1892"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="843" priority="1891"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="842" priority="1890"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="841" priority="1889"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="840" priority="1888"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="839" priority="1887"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="838" priority="1886"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="837" priority="1885"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="836" priority="1884"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="835" priority="1883"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="834" priority="1882"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="833" priority="1881"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="832" priority="1880"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="831" priority="1879"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="830" priority="1878"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="829" priority="1877"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="828" priority="1876"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="827" priority="1875"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="826" priority="1874"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="825" priority="1873"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="824" priority="1872"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="823" priority="1871"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="822" priority="1870"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="821" priority="1868"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="820" priority="1867"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="819" priority="1866"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="818" priority="1865"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="817" priority="1864"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="816" priority="1863"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="815" priority="1862"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="814" priority="1861"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="813" priority="1860"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="812" priority="1859"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="811" priority="1858"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="810" priority="1857"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="809" priority="1856"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="808" priority="1855"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="807" priority="1854"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="806" priority="1869"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="805" priority="1853"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="804" priority="1852"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="803" priority="1851"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="802" priority="1850"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="801" priority="1849"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="800" priority="1848"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="799" priority="1847"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="798" priority="1846"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="797" priority="1845"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="796" priority="1844"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="795" priority="1843"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="794" priority="1842"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="793" priority="1841"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="792" priority="1840"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="791" priority="1839"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="790" priority="1838"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="789" priority="1837"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="788" priority="1836"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="787" priority="1835"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="786" priority="1834"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="785" priority="1833"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="784" priority="1832"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="783" priority="1831"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="782" priority="1830"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="781" priority="1829"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="780" priority="1828"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="779" priority="1827"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="778" priority="1826"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="777" priority="1825"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="776" priority="1824"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="775" priority="1823"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="774" priority="1822"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="773" priority="1821"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="772" priority="1820"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="771" priority="1819"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="770" priority="1818"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="769" priority="1817"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="768" priority="1816"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="767" priority="1815"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="766" priority="1814"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="765" priority="1813"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="764" priority="1812"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="763" priority="1811"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="762" priority="1810"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="761" priority="1809"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="760" priority="1808"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="759" priority="1807"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="758" priority="1806"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="757" priority="1805"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="756" priority="1804"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="755" priority="1803"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="754" priority="1802"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="753" priority="1801"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="752" priority="1800"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="751" priority="1799"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="750" priority="1798"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="749" priority="1797"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="748" priority="1796"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="747" priority="1795"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="746" priority="1794"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="745" priority="1792"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="744" priority="1791"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="743" priority="1790"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="742" priority="1789"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="741" priority="1788"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="740" priority="1787"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="739" priority="1786"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="738" priority="1785"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="737" priority="1784"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="736" priority="1783"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="735" priority="1782"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="734" priority="1781"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="733" priority="1780"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="732" priority="1779"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="731" priority="1778"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="730" priority="1793"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="729" priority="1777"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="728" priority="1776"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="727" priority="1775"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="726" priority="1774"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="725" priority="1773"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="724" priority="1772"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="723" priority="1771"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="722" priority="1770"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="721" priority="1769"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="720" priority="1768"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="719" priority="1767"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="718" priority="1766"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="717" priority="1765"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="716" priority="1764"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="715" priority="1763"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="uniqueValues" dxfId="714" priority="1762"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="713" priority="712"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="712" priority="711"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="711" priority="710"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="710" priority="709"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="709" priority="708"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="708" priority="707"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="707" priority="706"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="706" priority="705"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="705" priority="704"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="704" priority="703"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="703" priority="702"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="702" priority="701"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="701" priority="700"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="700" priority="699"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="699" priority="698"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="698" priority="697"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="697" priority="696"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="696" priority="695"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="695" priority="694"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="694" priority="693"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="693" priority="692"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="692" priority="691"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="691" priority="690"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="690" priority="689"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="689" priority="688"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="688" priority="687"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="687" priority="686"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="686" priority="685"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="685" priority="684"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="684" priority="683"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="683" priority="713"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="682" priority="714"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="681" priority="682"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="680" priority="681"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="679" priority="680"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="678" priority="679"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="677" priority="678"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="676" priority="677"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="675" priority="676"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="674" priority="675"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="673" priority="674"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="672" priority="673"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="671" priority="672"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="670" priority="671"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="669" priority="670"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="668" priority="669"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="667" priority="668"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="666" priority="667"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="665" priority="666"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="664" priority="665"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="663" priority="664"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="662" priority="663"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="661" priority="662"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="660" priority="661"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="659" priority="660"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="658" priority="659"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="657" priority="658"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="656" priority="657"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="655" priority="656"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="654" priority="655"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="653" priority="654"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="652" priority="653"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="651" priority="652"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="650" priority="651"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="649" priority="650"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="648" priority="649"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="647" priority="648"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="646" priority="647"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="645" priority="646"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="644" priority="645"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="643" priority="644"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="642" priority="643"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="641" priority="642"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="640" priority="641"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="671" priority="671"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="670" priority="670"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="669" priority="669"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="668" priority="668"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="667" priority="667"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="666" priority="666"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="665" priority="665"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="664" priority="664"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="663" priority="663"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="662" priority="662"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="661" priority="661"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="660" priority="660"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="659" priority="659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="658" priority="658"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="657" priority="657"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="656" priority="672"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="655" priority="655"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="654" priority="654"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="653" priority="653"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="652" priority="652"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="651" priority="651"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="650" priority="650"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="649" priority="649"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="648" priority="648"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="647" priority="647"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="646" priority="646"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="645" priority="645"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="644" priority="644"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="643" priority="643"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="642" priority="642"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="641" priority="641"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="640" priority="656"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="639" priority="640"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="638" priority="639"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="637" priority="638"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="636" priority="637"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="635" priority="636"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="634" priority="635"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="633" priority="634"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="632" priority="633"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="631" priority="631"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="630" priority="630"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="629" priority="629"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="628" priority="628"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="627" priority="627"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="626" priority="626"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="625" priority="625"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="624" priority="624"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="623" priority="623"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="622" priority="622"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="621" priority="621"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="620" priority="620"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="619" priority="619"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="618" priority="618"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="617" priority="617"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="616" priority="632"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="631" priority="632"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="630" priority="631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="629" priority="630"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="628" priority="629"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="627" priority="628"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="626" priority="627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="625" priority="626"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="624" priority="625"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="623" priority="624"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="622" priority="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="621" priority="622"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="620" priority="621"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="619" priority="620"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="618" priority="619"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="617" priority="618"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="616" priority="617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="615" priority="616"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="614" priority="615"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="613" priority="614"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="612" priority="613"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="611" priority="612"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="610" priority="611"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="609" priority="610"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="608" priority="609"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="607" priority="608"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="606" priority="607"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="605" priority="606"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="604" priority="605"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="603" priority="604"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="602" priority="603"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="601" priority="602"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="600" priority="601"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="599" priority="599"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="598" priority="598"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="597" priority="597"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="596" priority="596"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="595" priority="595"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="594" priority="594"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="593" priority="593"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="592" priority="592"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="591" priority="591"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="590" priority="590"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="589" priority="589"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="588" priority="588"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="587" priority="587"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="586" priority="586"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="585" priority="585"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="584" priority="600"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="599" priority="600"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="598" priority="599"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="597" priority="598"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="596" priority="597"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="595" priority="596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="594" priority="595"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="593" priority="594"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="592" priority="593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="591" priority="592"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="590" priority="591"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="589" priority="590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="588" priority="589"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="587" priority="588"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="586" priority="587"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="585" priority="586"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="584" priority="585"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="583" priority="584"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="582" priority="583"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="581" priority="582"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="580" priority="581"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="579" priority="580"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="578" priority="579"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="577" priority="578"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="576" priority="577"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="575" priority="576"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="574" priority="575"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="573" priority="574"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="572" priority="573"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="571" priority="572"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="570" priority="571"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="569" priority="570"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="568" priority="569"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="567" priority="568"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="566" priority="567"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="565" priority="566"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="564" priority="565"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="563" priority="564"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="578" priority="578"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="577" priority="577"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="576" priority="576"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="575" priority="575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="574" priority="574"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="573" priority="573"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="572" priority="572"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="571" priority="571"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="570" priority="570"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="569" priority="569"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="568" priority="568"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="567" priority="567"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="566" priority="566"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="565" priority="565"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="564" priority="564"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="563" priority="579"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="562" priority="563"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="561" priority="562"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="560" priority="561"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="559" priority="560"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="558" priority="559"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="557" priority="558"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="556" priority="557"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="555" priority="556"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="554" priority="555"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="553" priority="554"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="552" priority="553"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="551" priority="552"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="550" priority="551"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="549" priority="550"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="548" priority="549"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="547" priority="548"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="546" priority="547"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="545" priority="546"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="544" priority="545"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="543" priority="544"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="542" priority="543"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="541" priority="542"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="540" priority="541"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="539" priority="540"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="538" priority="539"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="537" priority="538"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="536" priority="537"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="535" priority="536"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="534" priority="535"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="533" priority="534"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="532" priority="533"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="531" priority="532"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="546" priority="546"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="545" priority="545"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="544" priority="544"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="543" priority="543"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="542" priority="542"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="541" priority="541"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="540" priority="540"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="539" priority="539"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="538" priority="538"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="537" priority="537"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="536" priority="536"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="535" priority="535"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="534" priority="534"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="533" priority="533"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="532" priority="532"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="531" priority="547"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="530" priority="531"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="529" priority="530"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="528" priority="529"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="527" priority="528"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="526" priority="527"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="525" priority="526"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="524" priority="525"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="523" priority="524"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="522" priority="523"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="521" priority="522"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="520" priority="521"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="519" priority="520"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="518" priority="519"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="517" priority="517"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="516" priority="516"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="515" priority="515"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="514" priority="514"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="513" priority="513"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="512" priority="512"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="511" priority="511"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="510" priority="510"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="509" priority="509"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="508" priority="508"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="507" priority="507"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="506" priority="506"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="505" priority="505"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="504" priority="504"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="503" priority="503"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="502" priority="518"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="517" priority="518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="516" priority="517"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="515" priority="516"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="514" priority="515"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="513" priority="514"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="512" priority="513"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="511" priority="512"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="510" priority="511"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="509" priority="510"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="508" priority="509"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="507" priority="508"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="506" priority="507"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="505" priority="506"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="504" priority="505"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="503" priority="504"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="502" priority="503"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="501" priority="502"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="500" priority="501"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="499" priority="500"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="498" priority="499"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="497" priority="498"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="496" priority="497"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="495" priority="496"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="494" priority="495"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="493" priority="494"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="492" priority="493"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="491" priority="492"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="490" priority="491"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="489" priority="490"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="488" priority="489"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="487" priority="488"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="486" priority="487"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="485" priority="486"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="484" priority="485"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="483" priority="484"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="482" priority="483"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="481" priority="482"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="480" priority="481"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="479" priority="480"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="478" priority="479"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="477" priority="478"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="476" priority="477"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="475" priority="476"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="474" priority="475"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="473" priority="474"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="472" priority="473"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="471" priority="472"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="470" priority="471"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="469" priority="470"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="468" priority="469"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="467" priority="468"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="466" priority="467"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="465" priority="466"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="464" priority="465"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="463" priority="464"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="462" priority="463"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="461" priority="462"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="460" priority="461"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="459" priority="460"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="458" priority="459"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="457" priority="458"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="456" priority="457"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="455" priority="456"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="454" priority="455"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="453" priority="454"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="452" priority="453"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="451" priority="452"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="450" priority="451"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="449" priority="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="464" priority="464"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="463" priority="463"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="462" priority="462"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="461" priority="461"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="460" priority="460"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="459" priority="459"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="458" priority="458"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="457" priority="457"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="456" priority="456"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="455" priority="455"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="454" priority="454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="453" priority="453"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="452" priority="452"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="451" priority="451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="450" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="449" priority="465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="448" priority="449"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="447" priority="448"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="446" priority="447"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="445" priority="446"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="444" priority="445"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="443" priority="444"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="442" priority="443"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="441" priority="441"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="440" priority="440"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="439" priority="439"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="438" priority="438"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="437" priority="437"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="436" priority="436"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="435" priority="435"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="434" priority="434"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="433" priority="433"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="432" priority="432"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="431" priority="431"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="430" priority="430"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="429" priority="429"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="428" priority="428"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="427" priority="427"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="426" priority="442"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="441" priority="442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="440" priority="441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="439" priority="440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="438" priority="439"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="437" priority="438"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="436" priority="437"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="435" priority="436"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="434" priority="435"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="433" priority="434"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="432" priority="433"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="431" priority="432"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="430" priority="431"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="429" priority="430"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="428" priority="429"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="427" priority="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="426" priority="427"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="425" priority="426"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="424" priority="425"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="423" priority="424"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="422" priority="423"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="421" priority="422"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="420" priority="421"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="419" priority="420"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="418" priority="419"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="417" priority="418"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="416" priority="417"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="415" priority="416"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="414" priority="415"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="413" priority="414"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="412" priority="413"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="411" priority="412"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="410" priority="411"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="409" priority="410"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="408" priority="409"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="407" priority="408"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="406" priority="407"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="405" priority="406"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="404" priority="405"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="403" priority="404"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="402" priority="403"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="401" priority="402"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="400" priority="401"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="399" priority="400"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="398" priority="399"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="397" priority="398"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="396" priority="397"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="395" priority="396"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="394" priority="394"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="393" priority="393"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="392" priority="392"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="391" priority="391"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="390" priority="390"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="389" priority="389"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="394" priority="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="393" priority="394"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="392" priority="393"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="391" priority="392"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="390" priority="391"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="389" priority="390"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="388" priority="388"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="387" priority="387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="386" priority="386"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="385" priority="385"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="384" priority="384"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="383" priority="383"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="382" priority="382"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="381" priority="381"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="380" priority="380"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="379" priority="395"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="378" priority="379"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="377" priority="378"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="376" priority="377"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="375" priority="376"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="374" priority="375"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="373" priority="374"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="379" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="378" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="377" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="376" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="375" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="374" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="uniqueValues" dxfId="373" priority="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="372" priority="373"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="371" priority="372"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="370" priority="371"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="369" priority="370"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="368" priority="369"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="367" priority="368"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="366" priority="367"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="365" priority="366"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="364" priority="365"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="363" priority="364"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="362" priority="363"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="361" priority="362"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="360" priority="361"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="359" priority="360"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="358" priority="359"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="uniqueValues" dxfId="357" priority="358"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="356" priority="357"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="355" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="354" priority="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="353" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="352" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="351" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="350" priority="351"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="349" priority="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="348" priority="349"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="347" priority="348"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="346" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="345" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="344" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="343" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="342" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="341" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="340" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="339" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="338" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="337" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="336" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="335" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="334" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="333" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="332" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="331" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="330" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="329" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="328" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="327" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="326" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="325" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="356" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="355" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="354" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="353" priority="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="352" priority="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="351" priority="350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="350" priority="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="349" priority="348"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="348" priority="347"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="347" priority="346"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="346" priority="345"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="345" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="344" priority="343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="343" priority="342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="342" priority="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="341" priority="340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="340" priority="339"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="339" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="338" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="337" priority="336"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="336" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="335" priority="334"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="334" priority="333"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="333" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="332" priority="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="331" priority="330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="330" priority="329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="329" priority="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="328" priority="327"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="327" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="326" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="325" priority="357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="324" priority="325"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="323" priority="324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="322" priority="323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="321" priority="322"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="320" priority="321"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="319" priority="320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="318" priority="319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="317" priority="318"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="316" priority="317"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="315" priority="316"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="314" priority="315"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="313" priority="314"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="314" priority="314"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="313" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="312" priority="312"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="311" priority="311"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="310" priority="310"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="309" priority="309"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="308" priority="308"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="307" priority="307"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="306" priority="306"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="305" priority="305"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="304" priority="304"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="303" priority="303"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="302" priority="302"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="301" priority="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="300" priority="300"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="299" priority="299"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="299" priority="315"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="298" priority="298"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="297" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="296" priority="297"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="295" priority="296"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="294" priority="295"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="293" priority="294"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="292" priority="293"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="291" priority="292"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="290" priority="291"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="289" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="288" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="287" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="286" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="285" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="284" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="283" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="297" priority="297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="296" priority="296"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="295" priority="295"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="294" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="293" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="292" priority="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="291" priority="291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="290" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="289" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="288" priority="288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="287" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="286" priority="286"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="285" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="284" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="283" priority="299"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="282" priority="283"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="281" priority="282"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="280" priority="281"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="279" priority="280"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="278" priority="279"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="277" priority="278"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="276" priority="277"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="275" priority="276"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="274" priority="275"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="273" priority="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="272" priority="273"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="271" priority="272"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="270" priority="271"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="269" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="268" priority="269"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="267" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="266" priority="267"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="265" priority="266"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="264" priority="265"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="263" priority="264"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="262" priority="263"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="261" priority="262"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="260" priority="261"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="259" priority="260"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="258" priority="259"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="257" priority="258"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="256" priority="257"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="255" priority="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="254" priority="255"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="253" priority="254"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="252" priority="253"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="251" priority="252"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="250" priority="251"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="249" priority="250"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="248" priority="249"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="247" priority="248"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="246" priority="247"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="245" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="244" priority="245"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="243" priority="244"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="242" priority="243"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="241" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="240" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="239" priority="240"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="238" priority="239"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="237" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="236" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="235" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="234" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="233" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="232" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="231" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="230" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="229" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="228" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="227" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="226" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="225" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="224" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="223" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="222" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="221" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="220" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="219" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="218" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="217" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="216" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="215" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="214" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="213" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="212" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="211" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="210" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="209" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="208" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="207" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
-    <cfRule type="uniqueValues" dxfId="206" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="236" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="235" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="234" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="233" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="232" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="231" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="230" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="229" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="228" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="227" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="226" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="225" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="224" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="223" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="222" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="221" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="220" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="219" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="218" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="217" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="216" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="215" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="214" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="213" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="212" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="211" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="210" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="209" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="208" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="207" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
+    <cfRule type="uniqueValues" dxfId="206" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="205" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="204" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="203" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="202" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="201" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="200" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="199" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="198" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="197" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="196" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="195" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="194" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="193" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="192" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="191" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="190" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="189" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="188" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="187" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="186" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="185" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="184" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="183" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="182" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="181" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="180" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="179" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="178" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="177" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="176" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="175" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="174" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="173" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="172" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="171" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="170" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="169" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="168" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="167" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="166" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="165" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="164" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="163" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="162" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="161" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="160" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="159" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="158" priority="159"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="157" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="156" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="155" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="154" priority="155"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="153" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="152" priority="153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="151" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="150" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="149" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="148" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="147" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="146" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="145" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="144" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="143" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="142" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="141" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="140" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="139" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="138" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="137" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="136" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="135" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="134" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="133" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="132" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="131" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="130" priority="131"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="129" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="128" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="127" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="126" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="125" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="124" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="123" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="122" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="121" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="120" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="119" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="118" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="117" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="116" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="115" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="114" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="113" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="112" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="111" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="110" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="109" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="108" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="107" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="106" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="105" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="104" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="103" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="102" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="101" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="100" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="99" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="98" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="97" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="96" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="95" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="94" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="93" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="92" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="91" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="90" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="89" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="88" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="87" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="86" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="84" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="83" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="82" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="81" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="80" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="79" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="78" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="77" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="76" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="75" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="74" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="73" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="72" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="71" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="70" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="69" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="68" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="67" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="66" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="64" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="63" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="62" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="61" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="59" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="58" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="57" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="56" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="53" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="51" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="44" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="43" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="42" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="31" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="30" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="29" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="28" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="27" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="26" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="16" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E14:E30">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB9992-3987-49B4-9A9A-035265A3E4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB227A15-E8DD-44AC-BA1F-F402B11103DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>TC05_Search_product_in_Catalog</t>
-  </si>
-  <si>
-    <t>TC03_Verify_BLP_Solutions_ContactUS</t>
   </si>
   <si>
     <t>1. Go to home page
@@ -238,6 +235,9 @@
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
   </si>
+  <si>
+    <t>TC03_Verify_BLP_Solutions_ContactUS</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +382,3617 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="360">
+  <dxfs count="721">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4328,7 +7938,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4354,7 +7964,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -4374,7 +7984,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -4388,13 +7998,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -4414,7 +8024,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -4434,7 +8044,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -4448,13 +8058,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -4468,13 +8078,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -4488,13 +8098,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -4508,13 +8118,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -4528,13 +8138,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -4548,13 +8158,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -4568,13 +8178,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -4588,13 +8198,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -4608,13 +8218,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -4628,13 +8238,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -4648,13 +8258,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -4668,13 +8278,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -4688,13 +8298,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -4708,13 +8318,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -4728,13 +8338,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -4748,13 +8358,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -4768,13 +8378,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -4788,13 +8398,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -4808,13 +8418,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -4828,13 +8438,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -4848,13 +8458,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -4868,13 +8478,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -4888,13 +8498,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -4908,13 +8518,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -4922,1084 +8532,2167 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="359" priority="2627"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="358" priority="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="357" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="356" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="355" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="354" priority="351"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="353" priority="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="352" priority="349"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="351" priority="348"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="350" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="349" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="348" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="347" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="346" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="345" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="344" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="343" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="342" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="341" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="340" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="339" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="338" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="337" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="336" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="335" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="334" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="333" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="332" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="331" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="330" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="329" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="328" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="327" priority="357"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="326" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="325" priority="324"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="324" priority="323"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="323" priority="322"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="322" priority="321"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="321" priority="320"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="320" priority="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="319" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="318" priority="317"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="317" priority="316"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="316" priority="314"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="315" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="314" priority="312"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="313" priority="311"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="312" priority="310"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="311" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="310" priority="308"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="309" priority="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="308" priority="306"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="307" priority="305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="306" priority="304"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="305" priority="303"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="304" priority="302"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="303" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="302" priority="300"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="301" priority="315"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="300" priority="298"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="299" priority="297"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="298" priority="296"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="297" priority="295"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="296" priority="294"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="295" priority="293"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="294" priority="292"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="293" priority="291"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="292" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="291" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="290" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="289" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="288" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="287" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="286" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="285" priority="299"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="284" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="283" priority="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="282" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="281" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="280" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="279" priority="278"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="278" priority="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="277" priority="276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="276" priority="275"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="275" priority="274"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="274" priority="273"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="273" priority="272"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="272" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="271" priority="270"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="270" priority="269"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="269" priority="268"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="268" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="267" priority="266"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="266" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="265" priority="264"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="264" priority="263"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="263" priority="262"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="262" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="261" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="260" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="259" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="258" priority="257"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="257" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="256" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="255" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="254" priority="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="253" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="252" priority="251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="251" priority="250"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="250" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="249" priority="248"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="248" priority="247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="247" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="246" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="245" priority="244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="244" priority="243"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="243" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="242" priority="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="241" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="240" priority="239"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="239" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="238" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="237" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="236" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="235" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="234" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="233" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="232" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="231" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="230" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="229" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="228" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="227" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="226" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="225" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="224" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="223" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="222" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="221" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="220" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="219" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="218" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="217" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="216" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="215" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="214" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="213" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="212" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="211" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="210" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="209" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="208" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="207" priority="206"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="206" priority="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="205" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="204" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="203" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="202" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="201" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="200" priority="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="199" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="198" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="197" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="196" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="195" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="194" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="193" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="192" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="191" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="190" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="189" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="188" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="187" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="186" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="185" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="184" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="183" priority="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="182" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="181" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="180" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="179" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="178" priority="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="177" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="176" priority="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="175" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="174" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="173" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="172" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="171" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="170" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="169" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="168" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="167" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="166" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="165" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="164" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="163" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="162" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="161" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="160" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="159" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="158" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="157" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="156" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="155" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="154" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="153" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="152" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="151" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="150" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="149" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="148" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="147" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="146" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="145" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="144" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="143" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="142" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="141" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="140" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="139" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="138" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="137" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="136" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="135" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="134" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="133" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="132" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="131" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="130" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="129" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="128" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="127" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="126" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="125" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="124" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="123" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="122" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="121" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="120" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="119" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="118" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="117" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="116" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="115" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="114" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="113" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="112" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="111" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="110" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="109" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="108" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="107" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="106" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="105" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="104" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="103" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="102" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="101" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="100" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="99" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="98" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="97" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="96" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="95" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="94" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="93" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="92" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="91" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="90" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="89" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="88" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="87" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="86" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="85" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="84" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="83" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="82" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="81" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="80" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="79" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="78" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="77" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="76" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="75" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="74" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="73" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="72" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="71" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="70" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="69" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="68" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="67" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="66" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="65" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="64" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="63" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="62" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="61" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="60" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="59" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="58" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="57" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="56" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="55" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="54" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="53" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="52" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="51" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="50" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="49" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="48" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="47" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="46" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="45" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="44" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="43" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="42" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="41" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="40" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="39" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="38" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="37" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="36" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="35" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="34" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="33" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="32" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="31" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="30" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="29" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="28" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="27" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="26" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="25" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="24" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="23" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="22" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="21" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="20" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="19" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="18" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="17" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="16" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="15" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="12" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="11" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="9" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="8" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="720" priority="2988"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="719" priority="716"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="718" priority="715"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="717" priority="714"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="716" priority="713"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="715" priority="712"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="714" priority="711"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="713" priority="710"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="712" priority="709"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="711" priority="708"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="710" priority="707"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="709" priority="706"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="708" priority="705"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="707" priority="704"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="706" priority="703"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="705" priority="702"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="704" priority="701"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="703" priority="700"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="702" priority="699"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="701" priority="698"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="700" priority="697"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="699" priority="696"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="698" priority="695"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="697" priority="694"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="696" priority="693"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="695" priority="692"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="694" priority="691"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="693" priority="690"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="692" priority="689"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="691" priority="688"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="690" priority="687"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="689" priority="717"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="688" priority="718"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="687" priority="686"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="686" priority="685"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="685" priority="684"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="684" priority="683"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="683" priority="682"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="682" priority="681"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="681" priority="680"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="680" priority="679"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="679" priority="678"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="678" priority="677"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="677" priority="675"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="676" priority="674"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="675" priority="673"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="674" priority="672"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="673" priority="671"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="672" priority="670"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="671" priority="669"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="670" priority="668"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="669" priority="667"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="668" priority="666"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="667" priority="665"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="666" priority="664"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="665" priority="663"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="664" priority="662"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="663" priority="661"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="662" priority="676"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="661" priority="659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="660" priority="658"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="659" priority="657"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="658" priority="656"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="657" priority="655"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="656" priority="654"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="655" priority="653"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="654" priority="652"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="653" priority="651"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="652" priority="650"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="651" priority="649"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="650" priority="648"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="649" priority="647"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="648" priority="646"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="647" priority="645"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="646" priority="660"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="645" priority="644"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="644" priority="643"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="643" priority="642"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="642" priority="641"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="641" priority="640"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="640" priority="639"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="639" priority="638"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="638" priority="637"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="637" priority="636"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="636" priority="635"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="635" priority="634"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="634" priority="633"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="633" priority="632"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="632" priority="631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="631" priority="630"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="630" priority="629"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="629" priority="628"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="628" priority="627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="627" priority="626"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="626" priority="625"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="625" priority="624"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="624" priority="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="623" priority="622"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="622" priority="621"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="621" priority="620"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="620" priority="619"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="619" priority="618"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="618" priority="617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="617" priority="616"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="616" priority="615"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="615" priority="614"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="614" priority="613"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="613" priority="612"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="612" priority="611"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="611" priority="610"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="610" priority="609"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="609" priority="608"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="608" priority="607"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="607" priority="606"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="606" priority="605"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="605" priority="604"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="604" priority="603"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="603" priority="602"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="602" priority="601"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="601" priority="600"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="600" priority="599"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="599" priority="598"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="598" priority="597"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="597" priority="596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="596" priority="595"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="595" priority="594"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="594" priority="593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="593" priority="592"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="592" priority="591"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="591" priority="590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="590" priority="589"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="589" priority="588"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="588" priority="587"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="587" priority="586"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="586" priority="585"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="585" priority="584"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="584" priority="582"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="583" priority="581"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="582" priority="580"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="581" priority="579"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="580" priority="578"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="579" priority="577"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="578" priority="576"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="577" priority="575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="576" priority="574"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="575" priority="573"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="574" priority="572"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="573" priority="571"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="572" priority="570"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="571" priority="569"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="570" priority="568"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="569" priority="583"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="568" priority="567"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="567" priority="566"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="566" priority="565"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="565" priority="564"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="564" priority="563"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="563" priority="562"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="562" priority="561"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="561" priority="560"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="560" priority="559"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="559" priority="558"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="558" priority="557"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="557" priority="556"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="556" priority="555"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="555" priority="554"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="554" priority="553"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="553" priority="552"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="552" priority="550"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="551" priority="549"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="550" priority="548"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="549" priority="547"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="548" priority="546"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="547" priority="545"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="546" priority="544"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="545" priority="543"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="544" priority="542"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="543" priority="541"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="542" priority="540"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="541" priority="539"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="540" priority="538"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="539" priority="537"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="538" priority="536"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="537" priority="551"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="536" priority="535"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="535" priority="534"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="534" priority="533"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="533" priority="532"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="532" priority="531"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="531" priority="530"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="530" priority="529"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="529" priority="528"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="528" priority="527"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="527" priority="526"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="526" priority="525"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="525" priority="524"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="524" priority="523"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="523" priority="522"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="522" priority="521"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="521" priority="520"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="520" priority="519"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="519" priority="518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="518" priority="517"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="517" priority="516"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="516" priority="515"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="515" priority="514"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="514" priority="513"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="513" priority="512"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="512" priority="511"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="511" priority="510"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="510" priority="509"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="509" priority="508"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="508" priority="507"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="507" priority="506"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="506" priority="505"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="505" priority="504"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="504" priority="503"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="503" priority="502"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="502" priority="501"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="501" priority="500"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="500" priority="499"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="499" priority="498"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="498" priority="497"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="497" priority="496"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="496" priority="495"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="495" priority="494"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="494" priority="493"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="493" priority="492"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="492" priority="491"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="491" priority="490"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="490" priority="489"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="489" priority="488"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="488" priority="487"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="487" priority="486"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="486" priority="485"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="485" priority="484"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="484" priority="483"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="483" priority="482"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="482" priority="481"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="481" priority="480"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="480" priority="479"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="479" priority="478"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="478" priority="477"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="477" priority="476"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="476" priority="475"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="475" priority="474"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="474" priority="473"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="473" priority="472"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="472" priority="471"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="471" priority="470"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="470" priority="468"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="469" priority="467"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="468" priority="466"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="467" priority="465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="466" priority="464"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="465" priority="463"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="464" priority="462"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="463" priority="461"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="462" priority="460"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="461" priority="459"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="460" priority="458"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="459" priority="457"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="458" priority="456"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="457" priority="455"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="456" priority="454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="455" priority="469"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="454" priority="453"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="453" priority="452"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="452" priority="451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="451" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="450" priority="449"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="449" priority="448"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="448" priority="447"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="447" priority="446"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="446" priority="445"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="445" priority="444"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="444" priority="443"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="443" priority="442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="442" priority="441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="441" priority="440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="440" priority="439"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="439" priority="438"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="438" priority="437"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="437" priority="436"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="436" priority="435"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="435" priority="434"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="434" priority="433"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="433" priority="432"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="432" priority="431"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="431" priority="430"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="430" priority="429"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="429" priority="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="428" priority="427"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="427" priority="426"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="426" priority="425"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="425" priority="424"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="424" priority="423"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="423" priority="422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="422" priority="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="421" priority="420"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="420" priority="419"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="419" priority="418"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="418" priority="417"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="417" priority="416"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="416" priority="415"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="415" priority="414"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="414" priority="413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="413" priority="412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="412" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="411" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="410" priority="409"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="409" priority="408"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="408" priority="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="407" priority="406"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="406" priority="405"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="405" priority="404"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="404" priority="403"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="403" priority="402"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="402" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="401" priority="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="400" priority="399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="399" priority="398"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="398" priority="397"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="397" priority="396"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="396" priority="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="395" priority="394"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="394" priority="392"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="393" priority="391"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="392" priority="390"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="391" priority="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="390" priority="388"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="389" priority="387"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="388" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="387" priority="385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="386" priority="384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="385" priority="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="384" priority="382"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="383" priority="381"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="382" priority="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="381" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="380" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="379" priority="393"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="378" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="377" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="376" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="375" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="374" priority="373"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="373" priority="372"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="372" priority="371"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="371" priority="370"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="370" priority="369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="369" priority="368"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="368" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="367" priority="366"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="366" priority="365"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="365" priority="364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="364" priority="363"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E29">
+    <cfRule type="uniqueValues" dxfId="363" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="1" priority="2660"/>
+    <cfRule type="uniqueValues" dxfId="362" priority="3021"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="uniqueValues" dxfId="0" priority="3374"/>
+    <cfRule type="uniqueValues" dxfId="361" priority="3735"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="360" priority="361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="359" priority="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="358" priority="357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="357" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="356" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="355" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="354" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="353" priority="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="352" priority="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="351" priority="350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="350" priority="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="349" priority="348"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="348" priority="347"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="347" priority="346"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="346" priority="345"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="345" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="344" priority="343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="343" priority="342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="342" priority="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="341" priority="340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="340" priority="339"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="339" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="338" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="337" priority="336"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="336" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="335" priority="334"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="334" priority="333"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="333" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="332" priority="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="331" priority="330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="330" priority="329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="329" priority="359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="328" priority="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="327" priority="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="326" priority="327"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="325" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="324" priority="325"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="323" priority="324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="322" priority="323"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="321" priority="322"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="320" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="319" priority="320"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="318" priority="319"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="317" priority="317"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="316" priority="316"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="315" priority="315"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="314" priority="314"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="313" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="312" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="311" priority="311"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="310" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="309" priority="309"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="308" priority="308"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="307" priority="307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="306" priority="306"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="305" priority="305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="304" priority="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="303" priority="303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="302" priority="318"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="301" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="300" priority="300"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="299" priority="299"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="298" priority="298"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="297" priority="297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="296" priority="296"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="295" priority="295"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="294" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="293" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="292" priority="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="291" priority="291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="290" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="289" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="288" priority="288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="287" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="286" priority="302"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="285" priority="286"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="284" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="283" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="282" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="281" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="280" priority="281"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="279" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="278" priority="279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="277" priority="278"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="276" priority="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="275" priority="276"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="274" priority="275"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="273" priority="274"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="272" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="271" priority="272"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="270" priority="271"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="269" priority="270"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="268" priority="269"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="267" priority="268"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="266" priority="267"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="265" priority="266"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="264" priority="265"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="263" priority="264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="262" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="261" priority="262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="260" priority="261"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="259" priority="260"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="258" priority="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="257" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="256" priority="257"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="255" priority="256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="254" priority="255"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="253" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="252" priority="253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="251" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="250" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="249" priority="250"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="248" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="247" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="246" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="245" priority="246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="244" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="243" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="242" priority="243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="241" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="240" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="239" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="238" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="237" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="236" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="235" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="234" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="233" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="232" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="231" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="230" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="229" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="228" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="227" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="226" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="225" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="224" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="223" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="222" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="221" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="220" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="219" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="218" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="217" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="216" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="215" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="214" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="213" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="212" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="211" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="210" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="209" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="208" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="207" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="206" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="205" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="204" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="203" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="202" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="201" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="200" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="199" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="198" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="197" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="196" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="195" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="194" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="193" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="192" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="191" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="190" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="189" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="188" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="187" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="186" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="185" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="184" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="183" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="182" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="181" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="180" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="179" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="178" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="177" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="176" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="175" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="174" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="173" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="172" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="171" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="170" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="169" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="168" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="167" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="166" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="165" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="164" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="163" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="162" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="161" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="160" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="159" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="158" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="157" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="156" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="155" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="154" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="153" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="152" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="151" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="150" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="149" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="148" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="147" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="146" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="145" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="144" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="143" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="142" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="141" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="140" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="139" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="138" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="137" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="136" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="135" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="134" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="133" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="132" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="131" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="130" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="129" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="128" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="127" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="126" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="125" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="124" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="123" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="122" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="121" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="120" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="119" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="118" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="117" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="116" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="115" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="114" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="113" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="112" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="111" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="110" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="109" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="108" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="107" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="106" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="105" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="104" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="103" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="102" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="101" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="100" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="99" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="98" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="97" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="96" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="95" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="94" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="93" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="92" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="91" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="90" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="89" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="88" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="87" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="86" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="85" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="84" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="83" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="82" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="81" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="80" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="79" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="78" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="77" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="76" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="75" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="74" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="73" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="72" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="71" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="70" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="69" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="68" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="67" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="66" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="65" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="64" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="63" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="62" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="61" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="60" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="59" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="58" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="57" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="56" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="55" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="54" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="53" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="52" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="51" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="50" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="49" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="48" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="47" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="46" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="45" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="43" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="41" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="40" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="39" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="38" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="37" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="34" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="33" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="32" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="31" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="30" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="29" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="28" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="27" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="26" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="25" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="23" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="22" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="19" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB227A15-E8DD-44AC-BA1F-F402B11103DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F694EF-4481-4C09-A744-A0F12C585050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Verify Login for Registered User</t>
   </si>
   <si>
-    <t>Runmode</t>
-  </si>
-  <si>
     <t>TC40_Adding_MultipleItems_QuickOrder</t>
   </si>
   <si>
@@ -238,12 +235,18 @@
   <si>
     <t>TC03_Verify_BLP_Solutions_ContactUS</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -276,14 +279,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -373,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7937,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7947,7 +7939,7 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7964,7 +7956,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -7983,8 +7975,8 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -7998,13 +7990,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -8023,8 +8015,8 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -8043,8 +8035,8 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -8063,8 +8055,8 @@
       <c r="D6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -8083,8 +8075,8 @@
       <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>58</v>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -8103,8 +8095,8 @@
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
+      <c r="E8" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -8123,8 +8115,8 @@
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -8143,8 +8135,8 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
+      <c r="E10" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -8163,7 +8155,7 @@
       <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -8183,7 +8175,7 @@
       <c r="D12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -8203,7 +8195,7 @@
       <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -8223,7 +8215,7 @@
       <c r="D14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -8243,7 +8235,7 @@
       <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -8263,7 +8255,7 @@
       <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -8283,7 +8275,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -8303,7 +8295,7 @@
       <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -8323,7 +8315,7 @@
       <c r="D19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -8343,7 +8335,7 @@
       <c r="D20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -8363,7 +8355,7 @@
       <c r="D21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -8383,7 +8375,7 @@
       <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -8403,7 +8395,7 @@
       <c r="D23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -8423,7 +8415,7 @@
       <c r="D24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -8443,7 +8435,7 @@
       <c r="D25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -8463,7 +8455,7 @@
       <c r="D26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -8483,7 +8475,7 @@
       <c r="D27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -8503,7 +8495,7 @@
       <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -8518,12 +8510,12 @@
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -8534,2166 +8526,6 @@
   <conditionalFormatting sqref="F22:F28">
     <cfRule type="uniqueValues" dxfId="720" priority="2988"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="719" priority="716"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="718" priority="715"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="717" priority="714"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="716" priority="713"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="715" priority="712"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="714" priority="711"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="713" priority="710"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="712" priority="709"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="711" priority="708"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="710" priority="707"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="709" priority="706"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="708" priority="705"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="707" priority="704"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="706" priority="703"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="705" priority="702"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="704" priority="701"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="703" priority="700"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="702" priority="699"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="701" priority="698"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="700" priority="697"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="699" priority="696"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="698" priority="695"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="697" priority="694"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="696" priority="693"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="695" priority="692"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="694" priority="691"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="693" priority="690"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="692" priority="689"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="691" priority="688"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="690" priority="687"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="689" priority="717"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="688" priority="718"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="687" priority="686"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="686" priority="685"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="685" priority="684"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="684" priority="683"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="683" priority="682"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="682" priority="681"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="681" priority="680"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="680" priority="679"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="679" priority="678"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="678" priority="677"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="677" priority="675"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="676" priority="674"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="675" priority="673"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="674" priority="672"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="673" priority="671"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="672" priority="670"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="671" priority="669"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="670" priority="668"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="669" priority="667"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="668" priority="666"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="667" priority="665"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="666" priority="664"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="665" priority="663"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="664" priority="662"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="663" priority="661"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="662" priority="676"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="661" priority="659"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="660" priority="658"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="659" priority="657"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="658" priority="656"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="657" priority="655"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="656" priority="654"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="655" priority="653"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="654" priority="652"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="653" priority="651"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="652" priority="650"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="651" priority="649"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="650" priority="648"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="649" priority="647"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="648" priority="646"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="647" priority="645"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="646" priority="660"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="645" priority="644"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="644" priority="643"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="643" priority="642"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="642" priority="641"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="641" priority="640"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="640" priority="639"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="639" priority="638"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="638" priority="637"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="637" priority="636"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="636" priority="635"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="635" priority="634"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="634" priority="633"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="633" priority="632"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="632" priority="631"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="631" priority="630"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="630" priority="629"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="629" priority="628"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="628" priority="627"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="627" priority="626"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="626" priority="625"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="625" priority="624"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="624" priority="623"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="623" priority="622"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="622" priority="621"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="621" priority="620"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="620" priority="619"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="619" priority="618"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="618" priority="617"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="617" priority="616"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="616" priority="615"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="615" priority="614"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="614" priority="613"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="613" priority="612"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="612" priority="611"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="611" priority="610"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="610" priority="609"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="609" priority="608"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="608" priority="607"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="607" priority="606"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="606" priority="605"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="605" priority="604"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="604" priority="603"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="603" priority="602"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="602" priority="601"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="601" priority="600"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="600" priority="599"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="599" priority="598"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="598" priority="597"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="597" priority="596"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="596" priority="595"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="595" priority="594"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="594" priority="593"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="593" priority="592"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="592" priority="591"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="591" priority="590"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="590" priority="589"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="589" priority="588"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="588" priority="587"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="587" priority="586"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="586" priority="585"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="585" priority="584"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="584" priority="582"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="583" priority="581"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="582" priority="580"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="581" priority="579"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="580" priority="578"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="579" priority="577"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="578" priority="576"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="577" priority="575"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="576" priority="574"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="575" priority="573"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="574" priority="572"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="573" priority="571"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="572" priority="570"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="571" priority="569"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="570" priority="568"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="569" priority="583"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="568" priority="567"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="567" priority="566"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="566" priority="565"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="565" priority="564"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="564" priority="563"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="563" priority="562"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="562" priority="561"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="561" priority="560"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="560" priority="559"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="559" priority="558"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="558" priority="557"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="557" priority="556"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="556" priority="555"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="555" priority="554"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="554" priority="553"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="553" priority="552"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="552" priority="550"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="551" priority="549"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="550" priority="548"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="549" priority="547"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="548" priority="546"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="547" priority="545"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="546" priority="544"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="545" priority="543"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="544" priority="542"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="543" priority="541"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="542" priority="540"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="541" priority="539"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="540" priority="538"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="539" priority="537"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="538" priority="536"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="537" priority="551"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="536" priority="535"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="535" priority="534"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="534" priority="533"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="533" priority="532"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="532" priority="531"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="531" priority="530"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="530" priority="529"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="529" priority="528"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="528" priority="527"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="527" priority="526"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="526" priority="525"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="525" priority="524"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="524" priority="523"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="523" priority="522"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="522" priority="521"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="521" priority="520"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="520" priority="519"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="519" priority="518"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="518" priority="517"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="517" priority="516"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="516" priority="515"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="515" priority="514"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="514" priority="513"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="513" priority="512"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="512" priority="511"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="511" priority="510"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="510" priority="509"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="509" priority="508"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="508" priority="507"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="507" priority="506"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="506" priority="505"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="505" priority="504"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="504" priority="503"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="503" priority="502"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="502" priority="501"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="501" priority="500"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="500" priority="499"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="499" priority="498"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="498" priority="497"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="497" priority="496"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="496" priority="495"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="495" priority="494"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="494" priority="493"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="493" priority="492"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="492" priority="491"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="491" priority="490"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="490" priority="489"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="489" priority="488"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="488" priority="487"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="487" priority="486"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="486" priority="485"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="485" priority="484"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="484" priority="483"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="483" priority="482"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="482" priority="481"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="481" priority="480"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="480" priority="479"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="479" priority="478"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="478" priority="477"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="477" priority="476"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="476" priority="475"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="475" priority="474"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="474" priority="473"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="473" priority="472"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="472" priority="471"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="471" priority="470"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="470" priority="468"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="469" priority="467"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="468" priority="466"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="467" priority="465"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="466" priority="464"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="465" priority="463"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="464" priority="462"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="463" priority="461"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="462" priority="460"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="461" priority="459"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="460" priority="458"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="459" priority="457"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="458" priority="456"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="457" priority="455"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="456" priority="454"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="455" priority="469"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="454" priority="453"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="453" priority="452"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="452" priority="451"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="451" priority="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="450" priority="449"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="449" priority="448"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="448" priority="447"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="447" priority="446"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="446" priority="445"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="445" priority="444"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="444" priority="443"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="443" priority="442"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="442" priority="441"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="441" priority="440"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="440" priority="439"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="439" priority="438"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="438" priority="437"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="437" priority="436"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="436" priority="435"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="435" priority="434"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="434" priority="433"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="433" priority="432"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="432" priority="431"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="431" priority="430"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="430" priority="429"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="429" priority="428"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="428" priority="427"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="427" priority="426"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="426" priority="425"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="425" priority="424"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="424" priority="423"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="423" priority="422"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="422" priority="421"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="421" priority="420"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="420" priority="419"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="419" priority="418"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="418" priority="417"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="417" priority="416"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="416" priority="415"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="415" priority="414"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="414" priority="413"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="413" priority="412"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="412" priority="411"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="411" priority="410"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="410" priority="409"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="409" priority="408"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="408" priority="407"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="407" priority="406"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="406" priority="405"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="405" priority="404"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="404" priority="403"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="403" priority="402"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="402" priority="401"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="401" priority="400"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="400" priority="399"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="399" priority="398"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="398" priority="397"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="397" priority="396"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="396" priority="395"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="395" priority="394"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="394" priority="392"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="393" priority="391"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="392" priority="390"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="391" priority="389"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="390" priority="388"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="389" priority="387"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="388" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="387" priority="385"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="386" priority="384"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="385" priority="383"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="384" priority="382"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="383" priority="381"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="382" priority="380"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="381" priority="379"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="380" priority="378"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="379" priority="393"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="378" priority="377"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="377" priority="376"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="376" priority="375"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="375" priority="374"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="374" priority="373"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="373" priority="372"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="372" priority="371"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="371" priority="370"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="370" priority="369"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="369" priority="368"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="368" priority="367"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="367" priority="366"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="366" priority="365"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="365" priority="364"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="364" priority="363"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E29">
-    <cfRule type="uniqueValues" dxfId="363" priority="362"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="362" priority="3021"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
-    <cfRule type="uniqueValues" dxfId="361" priority="3735"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="360" priority="361"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="359" priority="358"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="358" priority="357"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="357" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="356" priority="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="355" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="354" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="353" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="352" priority="351"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="351" priority="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="350" priority="349"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="349" priority="348"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="348" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="347" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="346" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="345" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="344" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="343" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="342" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="341" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="340" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="339" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="338" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="337" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="336" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="335" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="334" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="333" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="332" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="331" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="330" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="329" priority="359"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="328" priority="360"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="327" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="326" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="325" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="324" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="323" priority="324"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="322" priority="323"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="321" priority="322"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="320" priority="321"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="319" priority="320"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="318" priority="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="317" priority="317"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="316" priority="316"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="315" priority="315"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="314" priority="314"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="313" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="312" priority="312"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="311" priority="311"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="310" priority="310"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="309" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="308" priority="308"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="307" priority="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="306" priority="306"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="305" priority="305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="304" priority="304"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="303" priority="303"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="302" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="301" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="300" priority="300"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="299" priority="299"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="298" priority="298"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="297" priority="297"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="296" priority="296"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="295" priority="295"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="294" priority="294"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="293" priority="293"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="292" priority="292"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="291" priority="291"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="290" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="289" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="288" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="287" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="286" priority="302"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="285" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="284" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="283" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="282" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="281" priority="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="280" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="279" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="278" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="277" priority="278"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="276" priority="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="275" priority="276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="274" priority="275"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="273" priority="274"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="272" priority="273"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="271" priority="272"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="270" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="269" priority="270"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="268" priority="269"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="267" priority="268"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="266" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="265" priority="266"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="264" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="263" priority="264"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="262" priority="263"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="261" priority="262"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="260" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="259" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="258" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="257" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="256" priority="257"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="255" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="254" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="253" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="252" priority="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="251" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="250" priority="251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="249" priority="250"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="248" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="247" priority="248"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="246" priority="247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="245" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="244" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="243" priority="244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="242" priority="243"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="241" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="240" priority="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="239" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="238" priority="239"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="237" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="236" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="235" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="234" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="233" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="232" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="231" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="230" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="229" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="228" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="227" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="226" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="225" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="224" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="223" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="222" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="221" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="220" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="219" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="218" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="217" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="216" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="215" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="214" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="213" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="212" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="211" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="210" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="209" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="208" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="207" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="206" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="205" priority="206"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="204" priority="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="203" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="202" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="201" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="200" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="199" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="198" priority="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="197" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="196" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="195" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="194" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="193" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="192" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="191" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="190" priority="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="189" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="188" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="187" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="186" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="185" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="184" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="183" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="182" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="181" priority="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="180" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="179" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="178" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="177" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="176" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="175" priority="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="174" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="173" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="172" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="171" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="170" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="169" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="168" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="167" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="166" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="165" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="164" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="163" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="162" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="161" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="160" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="159" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="158" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="157" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="156" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="155" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="154" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="153" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="152" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="151" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="150" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="149" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="148" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="147" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="146" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="145" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="144" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="143" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="142" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="141" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="140" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="139" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="138" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="137" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="136" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="135" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="134" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="133" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="132" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="131" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="130" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="129" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="128" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="127" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="126" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="125" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="124" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="123" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="122" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="121" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="120" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="119" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="118" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="117" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="116" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="115" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="114" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="113" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="112" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="111" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="110" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="109" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="108" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="107" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="106" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="105" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="104" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="103" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="102" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="101" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="100" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="99" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="98" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="97" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="96" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="95" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="94" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="93" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="92" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="91" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="90" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="89" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="88" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="87" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="86" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="85" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="84" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="83" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="82" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="81" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="80" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="79" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="78" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="77" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="76" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="75" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="74" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="73" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="72" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="71" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="70" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="69" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="68" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="67" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="66" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="65" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="64" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="63" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="62" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="61" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="60" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="59" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="58" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="57" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="56" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="55" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="54" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="53" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="52" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="51" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="50" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="49" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="48" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="47" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="46" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="45" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="44" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="43" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="42" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="41" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="40" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="39" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="38" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="37" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="36" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="35" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="34" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="33" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="32" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="31" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="30" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="29" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="28" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="27" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="26" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="25" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="24" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="23" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="22" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="21" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="20" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="19" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="16" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B041FE8-68E0-40E5-9BD0-229AB773AA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF817C-1533-4CAD-8EBB-84132011ECA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,12 +220,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>TC02_Login_RegisteredUser</t>
-  </si>
-  <si>
-    <t>Verify Login for Registered User</t>
-  </si>
-  <si>
     <t>TC40_Adding_MultipleItems_QuickOrder</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>RunMode</t>
+  </si>
+  <si>
+    <t>TC25_Verify_product_comparison</t>
+  </si>
+  <si>
+    <t>Product comparision page</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
@@ -999,78 +999,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>58</v>
@@ -1087,9 +1087,9 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1107,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>58</v>
@@ -1127,10 +1127,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>58</v>
@@ -1146,11 +1146,11 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>60</v>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -1166,7 +1166,7 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1307,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSPL309\Downloads\Updated New TC for  PROD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF817C-1533-4CAD-8EBB-84132011ECA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B68F9-B5CE-47A8-8727-E2F7F4200293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,14 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>Functionality</t>
   </si>
@@ -65,185 +55,184 @@
     <t>High</t>
   </si>
   <si>
-    <t xml:space="preserve">Search product not in Catalog </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search product in Catalog </t>
-  </si>
-  <si>
-    <t>TC04_Search_product_not_in_Catalog</t>
-  </si>
-  <si>
-    <t>TC05_Search_product_in_Catalog</t>
-  </si>
-  <si>
-    <t>1. Go to home page
-2. Verify brands, solutions, resources, contact and about us pages, Search filed and quick order link</t>
-  </si>
-  <si>
-    <t>TC32_Verify_store_location</t>
-  </si>
-  <si>
-    <t>1. Go to site and then go to store location page
-2. Search for store
-3. Verify the displayed results</t>
-  </si>
-  <si>
-    <t>TC31_Verify_login</t>
-  </si>
-  <si>
-    <t>User should be able to login successfully</t>
-  </si>
-  <si>
     <t>All the pages must be displayed</t>
   </si>
   <si>
-    <t>TC29_VerifyALL_Links_Myaccount</t>
-  </si>
-  <si>
     <t>Products must be added to store room successfully</t>
   </si>
   <si>
-    <t>TC27_Verify_Store_room</t>
-  </si>
-  <si>
-    <t>TC09_Verify_Documented_Savings</t>
-  </si>
-  <si>
     <t>Article should display</t>
   </si>
   <si>
-    <t>TC08_VerifyProductListPLP</t>
-  </si>
-  <si>
     <t>Should display products list</t>
   </si>
   <si>
-    <t>TC07_SearchCategory</t>
-  </si>
-  <si>
     <t>User should be directed to category page</t>
   </si>
   <si>
-    <t>TC10_Verify_Search_results</t>
-  </si>
-  <si>
     <t>Search results must display</t>
-  </si>
-  <si>
-    <t>TC11_Verify_PDP_From_Search_results</t>
-  </si>
-  <si>
-    <t>PDP should display</t>
-  </si>
-  <si>
-    <t>TC12_Verify_AddToCart_from_PDP</t>
-  </si>
-  <si>
-    <t>1. Item should be added to cart
-2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>TC13_Verify_Search_Dimensions</t>
   </si>
   <si>
     <t>Search results should appear
 Dimensions appear on left</t>
   </si>
   <si>
-    <t>TC14_Verify_AddToCart_from_Search</t>
-  </si>
-  <si>
-    <t>Item should be added to cart</t>
-  </si>
-  <si>
-    <t>TC15_Verify_ViewFullCart</t>
-  </si>
-  <si>
-    <t>1. Cart should display
-2. All items in cart must have pricing</t>
-  </si>
-  <si>
-    <t>Items  and price must update</t>
-  </si>
-  <si>
-    <t>TC17_Verify_CheckoutButton</t>
-  </si>
-  <si>
-    <t>TC18_Verify_ShippingPage</t>
-  </si>
-  <si>
-    <t>Shipping page must appear</t>
-  </si>
-  <si>
-    <t>TC26_Verify_Clear_Cart</t>
-  </si>
-  <si>
-    <t>All the items must be removed from the cart</t>
-  </si>
-  <si>
-    <t>TC16_Update_Quantity_CartPage</t>
-  </si>
-  <si>
-    <t>TC19_Verify_ShippingMethod</t>
-  </si>
-  <si>
-    <t>Shipping method page should display</t>
-  </si>
-  <si>
-    <t>TC23_Verify_UserRegistration</t>
-  </si>
-  <si>
     <t>User should be registered and logged in</t>
   </si>
   <si>
-    <t>TC30_Search_Typeahead</t>
-  </si>
-  <si>
     <t>Type ahead must be displayed</t>
-  </si>
-  <si>
-    <t>TC6_SearchResults_Typeahead</t>
-  </si>
-  <si>
-    <t>1. when user typing, type ahead should work
-2. User should be directed to search results list
-3. Dimensions should appear on left</t>
-  </si>
-  <si>
-    <t>TC02_Verify_MYACC_RegisteredUser</t>
-  </si>
-  <si>
-    <t>Verify Myaccounts Section for Registered User</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>TC40_Adding_MultipleItems_QuickOrder</t>
   </si>
   <si>
     <t>1. more than 10 Items should be added to cart
 2. Appropriate inventory message must be displayed</t>
   </si>
   <si>
-    <t>TC03_Verify_BLP_Solutions_ContactUS</t>
-  </si>
-  <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>TC25_Verify_product_comparison</t>
-  </si>
-  <si>
-    <t>Product comparision page</t>
+    <t>Verify Find a Branch for GuestUser</t>
+  </si>
+  <si>
+    <t>Verify Find a Branch for loggedinUser</t>
+  </si>
+  <si>
+    <t>User should able to remove item from storeroom</t>
+  </si>
+  <si>
+    <t>Verify PDP Page</t>
+  </si>
+  <si>
+    <t>price for listed items should be dispalyed</t>
+  </si>
+  <si>
+    <t>TC02_Serach_Verifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search product </t>
+  </si>
+  <si>
+    <t>TC03_SearchResults_Typeahead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. when user typing, type ahead should work
+2. User should be directed to search results list
+3. Dimensions should appear on left
+</t>
+  </si>
+  <si>
+    <t>TC04_SearchCategory</t>
+  </si>
+  <si>
+    <t>TC06_Verify_Documented_Savings</t>
+  </si>
+  <si>
+    <t>TC07_Verify_search_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Cart should display
+2. All items in cart must have pricing
+3.All the items must be removed from the cart
+</t>
+  </si>
+  <si>
+    <t>TC05_Verify_ProductListPLP</t>
+  </si>
+  <si>
+    <t>TC09_Verify_product_comparison</t>
+  </si>
+  <si>
+    <t>Verifying Product comparison</t>
+  </si>
+  <si>
+    <t>TC10_Verify_Search_Dimensions</t>
+  </si>
+  <si>
+    <t>TC11_Verify_AddToCart_from_Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item should be added to cart
+</t>
+  </si>
+  <si>
+    <t>TC12_Update_Quantity_CartPage</t>
+  </si>
+  <si>
+    <t>Quantity must update</t>
+  </si>
+  <si>
+    <t>TC13_Verify_Checkout_Operations</t>
+  </si>
+  <si>
+    <t>Verify user is able to perform all  the Checkout Operations</t>
+  </si>
+  <si>
+    <t>Verify  all Header content</t>
+  </si>
+  <si>
+    <t>Verify  all Footer content</t>
+  </si>
+  <si>
+    <t>1.User should able to perform pagination on PLP
+2.User should able to apply filter on product
+3.User should able to sort products on PLP</t>
+  </si>
+  <si>
+    <t>TC15_Verify_UserRegistration</t>
+  </si>
+  <si>
+    <t>TC16_Verify_Store_room</t>
+  </si>
+  <si>
+    <t>TC17_VerifyALL_Links_Myaccount</t>
+  </si>
+  <si>
+    <t>TC18_Search_Typeahead</t>
+  </si>
+  <si>
+    <t>TC19_Verify_ Find_a_Branch_Guestuser</t>
+  </si>
+  <si>
+    <t>TC20_Verify_ Find_a_Branch_Loggedinuser</t>
+  </si>
+  <si>
+    <t>TC21_Verify_Header</t>
+  </si>
+  <si>
+    <t>TC22_Verify_PDP_Page</t>
+  </si>
+  <si>
+    <t>TC23_Verify_Footer</t>
+  </si>
+  <si>
+    <t>TC24_Adding_MultipleItems_QuickOrder</t>
+  </si>
+  <si>
+    <t>TC25_Clearing_Storerooms_List</t>
+  </si>
+  <si>
+    <t>TC26_Verify_ pagination_SortBy_filteronPLP</t>
+  </si>
+  <si>
+    <t>TC27_Price_Verification_on_CartPage</t>
+  </si>
+  <si>
+    <t>TC08_ Verify_cart_operations</t>
+  </si>
+  <si>
+    <t>Verify Myaccounts Section for Registered User</t>
+  </si>
+  <si>
+    <t>TC14_Verify_MYACC_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -277,8 +266,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +292,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -321,27 +322,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -351,38 +345,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -723,18 +715,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -753,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -766,56 +758,56 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
+      <c r="E2" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="4" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -827,33 +819,33 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>58</v>
+      <c r="E6" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -867,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -887,35 +879,35 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
+    <row r="9" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -927,99 +919,99 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1027,15 +1019,15 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1047,19 +1039,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1067,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1087,13 +1079,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1107,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1127,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1146,14 +1138,14 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>58</v>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1167,15 +1159,15 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1187,142 +1179,119 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45">
+      <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="D28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="0" priority="2988"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSPL309\Downloads\Updated New TC for  PROD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B68F9-B5CE-47A8-8727-E2F7F4200293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D488E-84CE-472F-9F37-00ED2B53329B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
   <si>
     <t>Functionality</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Verify PDP Page</t>
-  </si>
-  <si>
-    <t>price for listed items should be dispalyed</t>
   </si>
   <si>
     <t>TC02_Serach_Verifications</t>
@@ -169,9 +166,6 @@
     <t>Verify  all Header content</t>
   </si>
   <si>
-    <t>Verify  all Footer content</t>
-  </si>
-  <si>
     <t>1.User should able to perform pagination on PLP
 2.User should able to apply filter on product
 3.User should able to sort products on PLP</t>
@@ -201,9 +195,6 @@
     <t>TC22_Verify_PDP_Page</t>
   </si>
   <si>
-    <t>TC23_Verify_Footer</t>
-  </si>
-  <si>
     <t>TC24_Adding_MultipleItems_QuickOrder</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
   </si>
   <si>
     <t>TC26_Verify_ pagination_SortBy_filteronPLP</t>
-  </si>
-  <si>
-    <t>TC27_Price_Verification_on_CartPage</t>
   </si>
   <si>
     <t>TC08_ Verify_cart_operations</t>
@@ -335,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -343,7 +331,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -716,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E28"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,14 +745,14 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>63</v>
+      <c r="E2" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -779,35 +766,35 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -819,13 +806,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>63</v>
+      <c r="E5" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -839,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>63</v>
+      <c r="E6" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -859,13 +846,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>63</v>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -879,35 +866,35 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>63</v>
+      <c r="E8" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -919,75 +906,75 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -995,19 +982,19 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1019,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1039,13 +1026,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>63</v>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1059,13 +1046,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>63</v>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1079,13 +1066,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>63</v>
+      <c r="E18" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1099,13 +1086,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>63</v>
+      <c r="E19" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1119,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>63</v>
+      <c r="E20" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1138,14 +1125,14 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>63</v>
+      <c r="E21" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1159,13 +1146,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1179,115 +1166,75 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="D26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D488E-84CE-472F-9F37-00ED2B53329B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B02EA-0451-47C2-9196-341D9A658B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>Functionality</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Verify Find a Branch for GuestUser</t>
-  </si>
-  <si>
-    <t>Verify Find a Branch for loggedinUser</t>
   </si>
   <si>
     <t>User should able to remove item from storeroom</t>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t>TC19_Verify_ Find_a_Branch_Guestuser</t>
-  </si>
-  <si>
-    <t>TC20_Verify_ Find_a_Branch_Loggedinuser</t>
   </si>
   <si>
     <t>TC21_Verify_Header</t>
@@ -258,7 +252,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -323,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -347,7 +341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -703,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,8 +744,8 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>59</v>
+      <c r="E2" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -766,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>59</v>
+      <c r="E3" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -786,13 +779,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>59</v>
+      <c r="E4" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
@@ -806,13 +799,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>59</v>
+      <c r="E5" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -826,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>59</v>
+      <c r="E6" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -846,13 +839,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>59</v>
+      <c r="E7" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -866,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>59</v>
+      <c r="E8" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -886,13 +879,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -906,13 +899,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>59</v>
+      <c r="E10" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -926,13 +919,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>59</v>
+      <c r="E11" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
@@ -946,13 +939,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>59</v>
+      <c r="E12" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
@@ -966,13 +959,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>59</v>
+      <c r="E13" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -986,13 +979,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>59</v>
+      <c r="E14" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1006,13 +999,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1026,13 +1019,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>59</v>
+      <c r="E16" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1046,13 +1039,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>59</v>
+      <c r="E17" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1066,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>59</v>
+      <c r="E18" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1086,13 +1079,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>59</v>
+      <c r="E19" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1106,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>59</v>
+      <c r="E20" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1125,14 +1118,14 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>50</v>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1146,95 +1139,75 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Master_executors\Prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KAMAN_SAnity\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B02EA-0451-47C2-9196-341D9A658B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>Functionality</t>
   </si>
@@ -160,9 +159,6 @@
     <t>Verify user is able to perform all  the Checkout Operations</t>
   </si>
   <si>
-    <t>Verify  all Header content</t>
-  </si>
-  <si>
     <t>1.User should able to perform pagination on PLP
 2.User should able to apply filter on product
 3.User should able to sort products on PLP</t>
@@ -181,9 +177,6 @@
   </si>
   <si>
     <t>TC19_Verify_ Find_a_Branch_Guestuser</t>
-  </si>
-  <si>
-    <t>TC21_Verify_Header</t>
   </si>
   <si>
     <t>TC22_Verify_PDP_Page</t>
@@ -213,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -350,9 +343,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 3" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -695,11 +688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -765,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -785,7 +778,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
@@ -805,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -825,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -845,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -865,7 +858,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -879,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -905,7 +898,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -925,7 +918,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
@@ -945,7 +938,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
@@ -965,7 +958,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -985,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -999,13 +992,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1019,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1039,13 +1032,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1059,13 +1052,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1079,13 +1072,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1099,13 +1092,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1119,95 +1112,75 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45">
-      <c r="A25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/Prod/MasterExecutor_Sanity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KAMAN_SAnity\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\Prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaibhav Oza\KAMAN_ECTEST_IE_SANITY-master\Input_files\Master_executors\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>Functionality</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>RunMode</t>
-  </si>
-  <si>
-    <t>Verify Find a Branch for GuestUser</t>
   </si>
   <si>
     <t>User should able to remove item from storeroom</t>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t>TC18_Search_Typeahead</t>
-  </si>
-  <si>
-    <t>TC19_Verify_ Find_a_Branch_Guestuser</t>
   </si>
   <si>
     <t>TC22_Verify_PDP_Page</t>
@@ -274,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -297,6 +291,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -310,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -338,6 +354,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,12 +722,12 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" customWidth="1"/>
@@ -738,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -752,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -772,13 +802,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
@@ -792,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -812,13 +842,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -832,13 +862,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -852,13 +882,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -872,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -892,13 +922,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -912,13 +942,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
@@ -932,13 +962,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
@@ -952,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -972,13 +1002,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -992,13 +1022,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1012,13 +1042,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1032,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1052,13 +1082,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1072,13 +1102,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1092,97 +1122,85 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>22</v>
+      <c r="D23" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
